--- a/public/uploads/honoraire/Report_2.xlsx
+++ b/public/uploads/honoraire/Report_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>N°</t>
   </si>
@@ -144,6 +144,114 @@
   </si>
   <si>
     <t>1 000,00</t>
+  </si>
+  <si>
+    <t>BRD00009685</t>
+  </si>
+  <si>
+    <t>CR-FMA0138612/2022</t>
+  </si>
+  <si>
+    <t>01/04/2022</t>
+  </si>
+  <si>
+    <t>BELAYACHI Jihane</t>
+  </si>
+  <si>
+    <t>10/03/2022</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>2 000,00</t>
+  </si>
+  <si>
+    <t>ST-FMA0138609/2022</t>
+  </si>
+  <si>
+    <t>Septième Année</t>
+  </si>
+  <si>
+    <t>Semaine 17 de :25/04 à 29/04 2022</t>
+  </si>
+  <si>
+    <t>JIDDANE Mohamed</t>
+  </si>
+  <si>
+    <t>28/04/2022</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Stage Clinique 38 : Gynécologie Obstétrique IV</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>ST-FMA0138606/2022</t>
+  </si>
+  <si>
+    <t>SEFFAR Myriame</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>ST-FMA0138601/2022</t>
+  </si>
+  <si>
+    <t>GRIMIT Trent Stephen</t>
+  </si>
+  <si>
+    <t>ST-FMA0138597/2022</t>
+  </si>
+  <si>
+    <t>NICLOT Patrick</t>
+  </si>
+  <si>
+    <t>ST-FMA0138596/2022</t>
+  </si>
+  <si>
+    <t>ALAOUI SLIMANI Lalla Naima</t>
+  </si>
+  <si>
+    <t>27/04/2022</t>
+  </si>
+  <si>
+    <t>ST-FMA0138594/2022</t>
+  </si>
+  <si>
+    <t>BERRADA Saleh Mohamed</t>
+  </si>
+  <si>
+    <t>ST-FMA0138593/2022</t>
+  </si>
+  <si>
+    <t>DAKKA Taoufiq</t>
+  </si>
+  <si>
+    <t>ST-FMA0138591/2022</t>
+  </si>
+  <si>
+    <t>DENDANE Tarek</t>
+  </si>
+  <si>
+    <t>ST-FMA0138590/2022</t>
+  </si>
+  <si>
+    <t>ATOUF Wafaa</t>
+  </si>
+  <si>
+    <t>1 400,00</t>
+  </si>
+  <si>
+    <t>ST-FMA0138588/2022</t>
+  </si>
+  <si>
+    <t>ST-FMA0138585/2022</t>
   </si>
 </sst>
 </file>
@@ -479,7 +587,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +817,666 @@
       <c r="R4"/>
       <c r="S4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/honoraire/Report_2.xlsx
+++ b/public/uploads/honoraire/Report_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>N°</t>
   </si>
@@ -74,48 +74,165 @@
     <t>MT</t>
   </si>
   <si>
+    <t>BRD00009685</t>
+  </si>
+  <si>
+    <t>CR-FMA0138612/2022</t>
+  </si>
+  <si>
+    <t>Faculté de Médecine Générale</t>
+  </si>
+  <si>
+    <t>Médecine Générale</t>
+  </si>
+  <si>
+    <t>Première année</t>
+  </si>
+  <si>
+    <t>01/04/2022</t>
+  </si>
+  <si>
+    <t>Semaine 10 de :07/03 à 11/03 2022</t>
+  </si>
+  <si>
+    <t>BELAYACHI Jihane</t>
+  </si>
+  <si>
+    <t>10/03/2022</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>Chimie et Biochimie</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>Métier</t>
+  </si>
+  <si>
+    <t>2 000,00</t>
+  </si>
+  <si>
+    <t>ST-FMA0138609/2022</t>
+  </si>
+  <si>
+    <t>Septième Année</t>
+  </si>
+  <si>
+    <t>Semaine 17 de :25/04 à 29/04 2022</t>
+  </si>
+  <si>
+    <t>JIDDANE Mohamed</t>
+  </si>
+  <si>
+    <t>28/04/2022</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Stage Clinique 38 : Gynécologie Obstétrique IV</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>ST-FMA0138606/2022</t>
+  </si>
+  <si>
+    <t>SEFFAR Myriame</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>ST-FMA0138601/2022</t>
+  </si>
+  <si>
+    <t>GRIMIT Trent Stephen</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>1 000,00</t>
+  </si>
+  <si>
+    <t>ST-FMA0138597/2022</t>
+  </si>
+  <si>
+    <t>NICLOT Patrick</t>
+  </si>
+  <si>
+    <t>ST-FMA0138596/2022</t>
+  </si>
+  <si>
+    <t>ALAOUI SLIMANI Lalla Naima</t>
+  </si>
+  <si>
+    <t>27/04/2022</t>
+  </si>
+  <si>
+    <t>ST-FMA0138594/2022</t>
+  </si>
+  <si>
+    <t>BERRADA Saleh Mohamed</t>
+  </si>
+  <si>
+    <t>ST-FMA0138593/2022</t>
+  </si>
+  <si>
+    <t>DAKKA Taoufiq</t>
+  </si>
+  <si>
+    <t>ST-FMA0138591/2022</t>
+  </si>
+  <si>
+    <t>DENDANE Tarek</t>
+  </si>
+  <si>
+    <t>ST-FMA0138590/2022</t>
+  </si>
+  <si>
+    <t>ATOUF Wafaa</t>
+  </si>
+  <si>
+    <t>1 400,00</t>
+  </si>
+  <si>
+    <t>ST-FMA0138588/2022</t>
+  </si>
+  <si>
+    <t>ABOUDRAR SAADIA</t>
+  </si>
+  <si>
+    <t>ST-FMA0138585/2022</t>
+  </si>
+  <si>
     <t>BRD00009877</t>
   </si>
   <si>
     <t>CR-FMA0138623/2022</t>
   </si>
   <si>
-    <t>Faculté de Médecine Générale</t>
-  </si>
-  <si>
-    <t>Médecine Générale</t>
-  </si>
-  <si>
-    <t>Première année</t>
-  </si>
-  <si>
     <t>18/04/2022</t>
   </si>
   <si>
-    <t>Semaine 10 de :07/03 à 11/03 2022</t>
-  </si>
-  <si>
     <t>RAZINE Rachid</t>
   </si>
   <si>
     <t>7/03/2022</t>
   </si>
   <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>Chimie et Biochimie</t>
-  </si>
-  <si>
-    <t>Cours</t>
-  </si>
-  <si>
-    <t>Métier</t>
-  </si>
-  <si>
     <t>1 500,00</t>
   </si>
   <si>
@@ -131,127 +248,64 @@
     <t>CR-FMA0138630/2022</t>
   </si>
   <si>
-    <t>ABOUDRAR SAADIA</t>
-  </si>
-  <si>
     <t>12/03/2022</t>
   </si>
   <si>
     <t>14:00</t>
   </si>
   <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>1 000,00</t>
-  </si>
-  <si>
-    <t>BRD00009685</t>
-  </si>
-  <si>
-    <t>CR-FMA0138612/2022</t>
-  </si>
-  <si>
-    <t>01/04/2022</t>
-  </si>
-  <si>
-    <t>BELAYACHI Jihane</t>
-  </si>
-  <si>
-    <t>10/03/2022</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>2 000,00</t>
-  </si>
-  <si>
-    <t>ST-FMA0138609/2022</t>
-  </si>
-  <si>
-    <t>Septième Année</t>
-  </si>
-  <si>
-    <t>Semaine 17 de :25/04 à 29/04 2022</t>
-  </si>
-  <si>
-    <t>JIDDANE Mohamed</t>
-  </si>
-  <si>
-    <t>28/04/2022</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>Stage Clinique 38 : Gynécologie Obstétrique IV</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>ST-FMA0138606/2022</t>
-  </si>
-  <si>
-    <t>SEFFAR Myriame</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>ST-FMA0138601/2022</t>
-  </si>
-  <si>
-    <t>GRIMIT Trent Stephen</t>
-  </si>
-  <si>
-    <t>ST-FMA0138597/2022</t>
-  </si>
-  <si>
-    <t>NICLOT Patrick</t>
-  </si>
-  <si>
-    <t>ST-FMA0138596/2022</t>
-  </si>
-  <si>
-    <t>ALAOUI SLIMANI Lalla Naima</t>
-  </si>
-  <si>
-    <t>27/04/2022</t>
-  </si>
-  <si>
-    <t>ST-FMA0138594/2022</t>
-  </si>
-  <si>
-    <t>BERRADA Saleh Mohamed</t>
-  </si>
-  <si>
-    <t>ST-FMA0138593/2022</t>
-  </si>
-  <si>
-    <t>DAKKA Taoufiq</t>
-  </si>
-  <si>
-    <t>ST-FMA0138591/2022</t>
-  </si>
-  <si>
-    <t>DENDANE Tarek</t>
-  </si>
-  <si>
-    <t>ST-FMA0138590/2022</t>
-  </si>
-  <si>
-    <t>ATOUF Wafaa</t>
-  </si>
-  <si>
-    <t>1 400,00</t>
-  </si>
-  <si>
-    <t>ST-FMA0138588/2022</t>
-  </si>
-  <si>
-    <t>ST-FMA0138585/2022</t>
+    <t>BRD00009879</t>
+  </si>
+  <si>
+    <t>CR-FMA0138580/2022</t>
+  </si>
+  <si>
+    <t>25/04/2022</t>
+  </si>
+  <si>
+    <t>Semaine 9 de :28/02 à 04/03 2022</t>
+  </si>
+  <si>
+    <t>2/03/2022</t>
+  </si>
+  <si>
+    <t>TD-FMA136764/2022</t>
+  </si>
+  <si>
+    <t>Semaine 18 de :02/05 à 06/05 2022</t>
+  </si>
+  <si>
+    <t>DOUDOUH Abderrahim</t>
+  </si>
+  <si>
+    <t>5/05/2022</t>
+  </si>
+  <si>
+    <t>Biophysique</t>
+  </si>
+  <si>
+    <t>Travaux Dirigés</t>
+  </si>
+  <si>
+    <t>1 200,00</t>
+  </si>
+  <si>
+    <t>BRD00009880</t>
+  </si>
+  <si>
+    <t>CR-FMA0145333/2022</t>
+  </si>
+  <si>
+    <t>Troisième Année</t>
+  </si>
+  <si>
+    <t>EL HMISS Hammani</t>
+  </si>
+  <si>
+    <t>Pharmacologie</t>
+  </si>
+  <si>
+    <t>0,00</t>
   </si>
 </sst>
 </file>
@@ -587,7 +641,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,35 +780,35 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
         <v>32</v>
@@ -772,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -781,42 +835,42 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
       <c r="K4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
         <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
       <c r="R4"/>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -824,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -836,35 +890,35 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
@@ -879,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -891,35 +945,35 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
         <v>32</v>
@@ -934,10 +988,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -946,42 +1000,42 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
       </c>
       <c r="R7"/>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -989,10 +1043,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -1001,42 +1055,42 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q8" t="s">
         <v>32</v>
       </c>
       <c r="R8"/>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1044,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1056,42 +1110,42 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
         <v>54</v>
       </c>
       <c r="K9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="s">
         <v>32</v>
       </c>
       <c r="R9"/>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1099,10 +1153,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1111,42 +1165,42 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
         <v>32</v>
       </c>
       <c r="R10"/>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1154,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1166,42 +1220,42 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
         <v>54</v>
       </c>
       <c r="K11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q11" t="s">
         <v>32</v>
       </c>
       <c r="R11"/>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1209,10 +1263,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1221,42 +1275,42 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q12" t="s">
         <v>32</v>
       </c>
       <c r="R12"/>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1264,10 +1318,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1276,42 +1330,42 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q13" t="s">
         <v>32</v>
       </c>
       <c r="R13"/>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1319,10 +1373,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1331,42 +1385,42 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
         <v>29</v>
       </c>
       <c r="M14" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="P14" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="s">
         <v>32</v>
       </c>
       <c r="R14"/>
       <c r="S14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1374,10 +1428,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1386,42 +1440,42 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
         <v>48</v>
-      </c>
-      <c r="M15" t="s">
-        <v>29</v>
       </c>
       <c r="N15"/>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
         <v>32</v>
       </c>
       <c r="R15"/>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1429,10 +1483,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1441,35 +1495,35 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="M16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N16"/>
       <c r="O16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
         <v>32</v>
@@ -1477,6 +1531,171 @@
       <c r="R16"/>
       <c r="S16" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17"/>
+      <c r="S17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1492,5 +1711,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/uploads/honoraire/Report_2.xlsx
+++ b/public/uploads/honoraire/Report_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>N°</t>
   </si>
@@ -74,51 +74,165 @@
     <t>MT</t>
   </si>
   <si>
+    <t>BRD00009881</t>
+  </si>
+  <si>
+    <t>CR-FMA0145337/2022</t>
+  </si>
+  <si>
+    <t>Faculté de Médecine Générale</t>
+  </si>
+  <si>
+    <t>Médecine Générale</t>
+  </si>
+  <si>
+    <t>Troisième Année</t>
+  </si>
+  <si>
+    <t>16/05/2022</t>
+  </si>
+  <si>
+    <t>Semaine 20 de :16/05 à 20/05 2022</t>
+  </si>
+  <si>
+    <t>BASSO MOHAMMED</t>
+  </si>
+  <si>
+    <t>17/05/2022</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>Pharmacologie</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>Métier</t>
+  </si>
+  <si>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>BRD00009879</t>
+  </si>
+  <si>
+    <t>CR-FMA0138580/2022</t>
+  </si>
+  <si>
+    <t>Première année</t>
+  </si>
+  <si>
+    <t>25/04/2022</t>
+  </si>
+  <si>
+    <t>Semaine 9 de :28/02 à 04/03 2022</t>
+  </si>
+  <si>
+    <t>JIDDANE Mohamed</t>
+  </si>
+  <si>
+    <t>2/03/2022</t>
+  </si>
+  <si>
+    <t>Chimie et Biochimie</t>
+  </si>
+  <si>
+    <t>2 000,00</t>
+  </si>
+  <si>
+    <t>TD-FMA136764/2022</t>
+  </si>
+  <si>
+    <t>Semaine 18 de :02/05 à 06/05 2022</t>
+  </si>
+  <si>
+    <t>DOUDOUH Abderrahim</t>
+  </si>
+  <si>
+    <t>5/05/2022</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>Biophysique</t>
+  </si>
+  <si>
+    <t>Travaux Dirigés</t>
+  </si>
+  <si>
+    <t>1 200,00</t>
+  </si>
+  <si>
+    <t>BRD00009877</t>
+  </si>
+  <si>
+    <t>CR-FMA0138623/2022</t>
+  </si>
+  <si>
+    <t>18/04/2022</t>
+  </si>
+  <si>
+    <t>Semaine 10 de :07/03 à 11/03 2022</t>
+  </si>
+  <si>
+    <t>RAZINE Rachid</t>
+  </si>
+  <si>
+    <t>7/03/2022</t>
+  </si>
+  <si>
+    <t>1 500,00</t>
+  </si>
+  <si>
+    <t>CR-FMA0138622/2022</t>
+  </si>
+  <si>
+    <t>RAHALI Younes</t>
+  </si>
+  <si>
+    <t>8/03/2022</t>
+  </si>
+  <si>
+    <t>CR-FMA0138630/2022</t>
+  </si>
+  <si>
+    <t>ABOUDRAR SAADIA</t>
+  </si>
+  <si>
+    <t>12/03/2022</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>1 000,00</t>
+  </si>
+  <si>
     <t>BRD00009685</t>
   </si>
   <si>
     <t>CR-FMA0138612/2022</t>
   </si>
   <si>
-    <t>Faculté de Médecine Générale</t>
-  </si>
-  <si>
-    <t>Médecine Générale</t>
-  </si>
-  <si>
-    <t>Première année</t>
-  </si>
-  <si>
     <t>01/04/2022</t>
   </si>
   <si>
-    <t>Semaine 10 de :07/03 à 11/03 2022</t>
-  </si>
-  <si>
     <t>BELAYACHI Jihane</t>
   </si>
   <si>
     <t>10/03/2022</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>Chimie et Biochimie</t>
-  </si>
-  <si>
-    <t>Cours</t>
-  </si>
-  <si>
-    <t>Métier</t>
-  </si>
-  <si>
-    <t>2 000,00</t>
-  </si>
-  <si>
     <t>ST-FMA0138609/2022</t>
   </si>
   <si>
@@ -128,15 +242,9 @@
     <t>Semaine 17 de :25/04 à 29/04 2022</t>
   </si>
   <si>
-    <t>JIDDANE Mohamed</t>
-  </si>
-  <si>
     <t>28/04/2022</t>
   </si>
   <si>
-    <t>16:00</t>
-  </si>
-  <si>
     <t>18:00</t>
   </si>
   <si>
@@ -161,12 +269,6 @@
     <t>GRIMIT Trent Stephen</t>
   </si>
   <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>1 000,00</t>
-  </si>
-  <si>
     <t>ST-FMA0138597/2022</t>
   </si>
   <si>
@@ -212,100 +314,7 @@
     <t>ST-FMA0138588/2022</t>
   </si>
   <si>
-    <t>ABOUDRAR SAADIA</t>
-  </si>
-  <si>
     <t>ST-FMA0138585/2022</t>
-  </si>
-  <si>
-    <t>BRD00009877</t>
-  </si>
-  <si>
-    <t>CR-FMA0138623/2022</t>
-  </si>
-  <si>
-    <t>18/04/2022</t>
-  </si>
-  <si>
-    <t>RAZINE Rachid</t>
-  </si>
-  <si>
-    <t>7/03/2022</t>
-  </si>
-  <si>
-    <t>1 500,00</t>
-  </si>
-  <si>
-    <t>CR-FMA0138622/2022</t>
-  </si>
-  <si>
-    <t>RAHALI Younes</t>
-  </si>
-  <si>
-    <t>8/03/2022</t>
-  </si>
-  <si>
-    <t>CR-FMA0138630/2022</t>
-  </si>
-  <si>
-    <t>12/03/2022</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>BRD00009879</t>
-  </si>
-  <si>
-    <t>CR-FMA0138580/2022</t>
-  </si>
-  <si>
-    <t>25/04/2022</t>
-  </si>
-  <si>
-    <t>Semaine 9 de :28/02 à 04/03 2022</t>
-  </si>
-  <si>
-    <t>2/03/2022</t>
-  </si>
-  <si>
-    <t>TD-FMA136764/2022</t>
-  </si>
-  <si>
-    <t>Semaine 18 de :02/05 à 06/05 2022</t>
-  </si>
-  <si>
-    <t>DOUDOUH Abderrahim</t>
-  </si>
-  <si>
-    <t>5/05/2022</t>
-  </si>
-  <si>
-    <t>Biophysique</t>
-  </si>
-  <si>
-    <t>Travaux Dirigés</t>
-  </si>
-  <si>
-    <t>1 200,00</t>
-  </si>
-  <si>
-    <t>BRD00009880</t>
-  </si>
-  <si>
-    <t>CR-FMA0145333/2022</t>
-  </si>
-  <si>
-    <t>Troisième Année</t>
-  </si>
-  <si>
-    <t>EL HMISS Hammani</t>
-  </si>
-  <si>
-    <t>Pharmacologie</t>
-  </si>
-  <si>
-    <t>0,00</t>
   </si>
 </sst>
 </file>
@@ -768,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -780,42 +789,42 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
         <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
         <v>32</v>
       </c>
       <c r="R3"/>
       <c r="S3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -823,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -835,42 +844,42 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
       <c r="R4"/>
       <c r="S4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -878,10 +887,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -890,42 +899,42 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
         <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
         <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
       </c>
       <c r="R5"/>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -933,10 +942,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -945,42 +954,42 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
         <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
         <v>32</v>
       </c>
       <c r="R6"/>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -988,10 +997,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -1000,42 +1009,42 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="s">
         <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
       </c>
       <c r="R7"/>
       <c r="S7" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1043,10 +1052,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -1055,42 +1064,42 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="K8">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="s">
         <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
         <v>32</v>
       </c>
       <c r="R8"/>
       <c r="S8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1098,10 +1107,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1110,42 +1119,42 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
         <v>32</v>
       </c>
       <c r="R9"/>
       <c r="S9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1153,10 +1162,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1165,42 +1174,42 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
         <v>32</v>
       </c>
       <c r="R10"/>
       <c r="S10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1208,10 +1217,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1220,42 +1229,42 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
         <v>32</v>
       </c>
       <c r="R11"/>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1263,10 +1272,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1275,42 +1284,42 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
         <v>32</v>
       </c>
       <c r="R12"/>
       <c r="S12" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1318,10 +1327,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1330,42 +1339,42 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
         <v>32</v>
       </c>
       <c r="R13"/>
       <c r="S13" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1376,7 +1385,7 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1385,42 +1394,42 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="Q14" t="s">
         <v>32</v>
       </c>
       <c r="R14"/>
       <c r="S14" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1431,7 +1440,7 @@
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1440,42 +1449,42 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N15"/>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="Q15" t="s">
         <v>32</v>
       </c>
       <c r="R15"/>
       <c r="S15" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1486,7 +1495,7 @@
         <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1495,42 +1504,42 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N16"/>
       <c r="O16" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="P16" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="Q16" t="s">
         <v>32</v>
       </c>
       <c r="R16"/>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1538,10 +1547,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1550,42 +1559,42 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N17"/>
       <c r="O17" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="Q17" t="s">
         <v>32</v>
       </c>
       <c r="R17"/>
       <c r="S17" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1593,10 +1602,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1605,42 +1614,42 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N18"/>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="P18" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Q18" t="s">
         <v>32</v>
       </c>
       <c r="R18"/>
       <c r="S18" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1648,10 +1657,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -1660,42 +1669,42 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L19" t="s">
         <v>28</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N19"/>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="P19" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="Q19" t="s">
         <v>32</v>
       </c>
       <c r="R19"/>
       <c r="S19" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/honoraire/Report_2.xlsx
+++ b/public/uploads/honoraire/Report_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>N°</t>
   </si>
@@ -74,31 +74,31 @@
     <t>MT</t>
   </si>
   <si>
-    <t>BRD00009883</t>
-  </si>
-  <si>
-    <t>CTP-FPA129447/2022</t>
-  </si>
-  <si>
-    <t>Faculté de Pharmacie Abulcasis</t>
-  </si>
-  <si>
-    <t>Pharmacie</t>
+    <t>BRD00012777</t>
+  </si>
+  <si>
+    <t>CR-FMDA0027084/2022</t>
+  </si>
+  <si>
+    <t>Faculté de Médecine Dentaire</t>
+  </si>
+  <si>
+    <t>Médecine Dentaire</t>
   </si>
   <si>
     <t>Troisième Année</t>
   </si>
   <si>
-    <t>12/06/2022</t>
-  </si>
-  <si>
-    <t>Semaine 16 de :18/04 à 22/04 2022</t>
-  </si>
-  <si>
-    <t>BOUSLIMAN Yassir</t>
-  </si>
-  <si>
-    <t>19/04/2022</t>
+    <t>07/11/2022</t>
+  </si>
+  <si>
+    <t>Semaine 43 de :24/10 à 30/10 2022</t>
+  </si>
+  <si>
+    <t>RAMDI Hind</t>
+  </si>
+  <si>
+    <t>24/10/2022</t>
   </si>
   <si>
     <t>14:00</t>
@@ -107,85 +107,244 @@
     <t>16:00</t>
   </si>
   <si>
-    <t>Toxicologie I</t>
-  </si>
-  <si>
-    <t>Contrôle TP</t>
-  </si>
-  <si>
-    <t>Métier</t>
+    <t>Chirurgie Orale Pédiatrique et Endodontie de l'Adulte (CM)</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>Métier-Santé</t>
+  </si>
+  <si>
+    <t>2 000,00</t>
+  </si>
+  <si>
+    <t>TP-FMDA0012150/2022</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>Endodontie de l'Enfant et de l'Adulte (APP)</t>
+  </si>
+  <si>
+    <t>Travaux pratiques</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>1 200,00</t>
+  </si>
+  <si>
+    <t>HESSISSEN Hanaa</t>
+  </si>
+  <si>
+    <t>1 000,00</t>
+  </si>
+  <si>
+    <t>TP-FMDA0012148/2022</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>TP-FMDA0012072/2022</t>
+  </si>
+  <si>
+    <t>SLAOUI HASNAOUI Jihane</t>
+  </si>
+  <si>
+    <t>25/10/2022</t>
+  </si>
+  <si>
+    <t>Occlusodontie et Prothèse Conjointe Plurale (APP)</t>
   </si>
   <si>
     <t>0,00</t>
   </si>
   <si>
-    <t>AOUARI Hayat</t>
-  </si>
-  <si>
-    <t>BRD00009882</t>
-  </si>
-  <si>
-    <t>CR-FMA0145339/2022</t>
+    <t>BENYAHIA HASNAE</t>
+  </si>
+  <si>
+    <t>TOUZRI Khalid</t>
+  </si>
+  <si>
+    <t>300,00</t>
+  </si>
+  <si>
+    <t>TP-FMDA0012069/2022</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>TP-FMDA0011995/2022</t>
+  </si>
+  <si>
+    <t>SEFRIOUI Amal</t>
+  </si>
+  <si>
+    <t>27/10/2022</t>
+  </si>
+  <si>
+    <t>Prothèses Amovibles (APP)</t>
+  </si>
+  <si>
+    <t>Stage-Santé</t>
+  </si>
+  <si>
+    <t>TP-FMDA0011993/2022</t>
+  </si>
+  <si>
+    <t>TP-FMDA0011939/2022</t>
+  </si>
+  <si>
+    <t>KARIMI Zakaria</t>
+  </si>
+  <si>
+    <t>ACHOUR Imane</t>
+  </si>
+  <si>
+    <t>TP-FMDA0011937/2022</t>
+  </si>
+  <si>
+    <t>TP-FMDA0011887/2022</t>
+  </si>
+  <si>
+    <t>ROKHSSI Hasnaa</t>
+  </si>
+  <si>
+    <t>TP-FMDA0011885/2022</t>
+  </si>
+  <si>
+    <t>CM-FMDA0011837/2022</t>
+  </si>
+  <si>
+    <t>28/10/2022</t>
+  </si>
+  <si>
+    <t>TP-FMDA0011797/2022</t>
+  </si>
+  <si>
+    <t>EL OUALI Rachid</t>
+  </si>
+  <si>
+    <t>ASSILA Layla</t>
+  </si>
+  <si>
+    <t>TP-FMDA0011796/2022</t>
+  </si>
+  <si>
+    <t>CC-FMDA0011780/2022</t>
+  </si>
+  <si>
+    <t>Pr Pr</t>
+  </si>
+  <si>
+    <t>29/10/2022</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>Occlusodontie et Prothèse Conjointe Plurale (CM)</t>
+  </si>
+  <si>
+    <t>Contrôle continu</t>
+  </si>
+  <si>
+    <t>CM-FMDA0011779/2022</t>
+  </si>
+  <si>
+    <t>CM-FMDA0011778/2022</t>
+  </si>
+  <si>
+    <t>EL HARTI Chakib</t>
+  </si>
+  <si>
+    <t>CC-FMDA0011760/2022</t>
+  </si>
+  <si>
+    <t>CM-FMDA0011745/2022</t>
+  </si>
+  <si>
+    <t>MERZOUK Nadia</t>
+  </si>
+  <si>
+    <t>26/10/2022</t>
+  </si>
+  <si>
+    <t>Prothèses Amovibles (CM)</t>
+  </si>
+  <si>
+    <t>CM-FMDA0011744/2022</t>
+  </si>
+  <si>
+    <t>BRD00012775</t>
+  </si>
+  <si>
+    <t>TD-FMA0024963/2022</t>
   </si>
   <si>
     <t>Faculté de Médecine Générale</t>
   </si>
   <si>
-    <t>Médecine Générale</t>
-  </si>
-  <si>
-    <t>10/06/2022</t>
-  </si>
-  <si>
-    <t>Semaine 20 de :16/05 à 20/05 2022</t>
-  </si>
-  <si>
-    <t>EL ABDALLAOUI MOHAMED</t>
-  </si>
-  <si>
-    <t>16/05/2022</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>Pharmacologie</t>
-  </si>
-  <si>
-    <t>Cours</t>
-  </si>
-  <si>
-    <t>CR-FMA0145340/2022</t>
-  </si>
-  <si>
-    <t>MOUAD EL JOUHRI</t>
-  </si>
-  <si>
-    <t>18/05/2022</t>
-  </si>
-  <si>
-    <t>CR-FMA0145341/2022</t>
-  </si>
-  <si>
-    <t>TAIBI Mimouni</t>
-  </si>
-  <si>
-    <t>19/05/2022</t>
-  </si>
-  <si>
-    <t>BRD00009881</t>
-  </si>
-  <si>
-    <t>CR-FMA0145337/2022</t>
-  </si>
-  <si>
-    <t>BASSO MOHAMMED</t>
-  </si>
-  <si>
-    <t>17/05/2022</t>
+    <t>Résidanat : Radiothérapie</t>
+  </si>
+  <si>
+    <t>Deuxième année</t>
+  </si>
+  <si>
+    <t>03/11/2022</t>
+  </si>
+  <si>
+    <t>Semaine 38 de :19/09 à 25/09 2022</t>
+  </si>
+  <si>
+    <t>EL KACEMI Hanan</t>
+  </si>
+  <si>
+    <t>23/09/2022</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Module théorique</t>
+  </si>
+  <si>
+    <t>Travaux Dirigés</t>
+  </si>
+  <si>
+    <t>Résidanat</t>
+  </si>
+  <si>
+    <t>700,00</t>
+  </si>
+  <si>
+    <t>ST-FMA0026627/2022</t>
+  </si>
+  <si>
+    <t>EL GUEDDARI Brahim El Khalil</t>
+  </si>
+  <si>
+    <t>21/09/2022</t>
+  </si>
+  <si>
+    <t>Module clinique trimestriel</t>
+  </si>
+  <si>
+    <t>Stage</t>
   </si>
 </sst>
 </file>
@@ -521,7 +680,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +810,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -669,7 +828,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
@@ -678,24 +837,24 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R3"/>
       <c r="S3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -703,54 +862,54 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R4"/>
       <c r="S4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -758,54 +917,54 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R5"/>
       <c r="S5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -813,54 +972,54 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R6"/>
       <c r="S6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -868,54 +1027,1704 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R7"/>
       <c r="S7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17"/>
+      <c r="S17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22"/>
+      <c r="S22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24"/>
+      <c r="S24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25"/>
+      <c r="S25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26"/>
+      <c r="S26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27"/>
+      <c r="S27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28"/>
+      <c r="S28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29"/>
+      <c r="S29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31"/>
+      <c r="S31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32"/>
+      <c r="S32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33"/>
+      <c r="S33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34">
         <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34" t="s">
+        <v>88</v>
+      </c>
+      <c r="P34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34"/>
+      <c r="S34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35"/>
+      <c r="S35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" t="s">
+        <v>100</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36" t="s">
+        <v>101</v>
+      </c>
+      <c r="P36" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>103</v>
+      </c>
+      <c r="R36"/>
+      <c r="S36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" t="s">
+        <v>54</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>103</v>
+      </c>
+      <c r="R37"/>
+      <c r="S37" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/honoraire/Report_2.xlsx
+++ b/public/uploads/honoraire/Report_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>N°</t>
   </si>
@@ -74,121 +74,658 @@
     <t>MT</t>
   </si>
   <si>
-    <t>BRD00015422</t>
-  </si>
-  <si>
-    <t>CR-CFC0049856/2023</t>
+    <t>BRD00015591</t>
+  </si>
+  <si>
+    <t>ST-CFC0070168/2023</t>
   </si>
   <si>
     <t>Centre de la Formation Continue</t>
   </si>
   <si>
-    <t>DU cardiopathies congénitales et acquises chez l'enfant</t>
-  </si>
-  <si>
-    <t>Première année</t>
-  </si>
-  <si>
-    <t>01/08/2023</t>
-  </si>
-  <si>
-    <t>Semaine 28 de :06/06 à 10/06 2022</t>
-  </si>
-  <si>
-    <t>STOS Bertrand</t>
+    <t>DU Chirurgie Orale et Implantologie</t>
+  </si>
+  <si>
+    <t>Promotion 4</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
+  </si>
+  <si>
+    <t>Semaine 44 de :02/11 à 06/11 2020</t>
+  </si>
+  <si>
+    <t>BENJELLOUN LAILA</t>
+  </si>
+  <si>
+    <t>1/11/2023</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>Stages Cliniques</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Métier-Santé</t>
+  </si>
+  <si>
+    <t>5 250,00</t>
+  </si>
+  <si>
+    <t>BENNANI ABDELKADER</t>
+  </si>
+  <si>
+    <t>BRD00015115</t>
+  </si>
+  <si>
+    <t>CR-CFC0043875/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DU LASERS, DERMATOLOGIE  ESTHÉTIQUE, RÉGÉNÉRATIVE  ET CHIRURGICALE </t>
+  </si>
+  <si>
+    <t>Promotion 1</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
+    <t>Semaine 17 de :24/04 à 30/04 2023</t>
+  </si>
+  <si>
+    <t>OUALI KARIM</t>
+  </si>
+  <si>
+    <t>29/04/2023</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>physiologie cutanée  -	Chirurgie cutanée (partie 1)</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>750,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0043874/2023</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>CR-CFC0043873/2023</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>CR-CFC0043864/2023</t>
+  </si>
+  <si>
+    <t>BAY BAY HANANE</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>CR-CFC0043862/2023</t>
+  </si>
+  <si>
+    <t>CHAKIRI RADIA</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>375,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0043854/2023</t>
+  </si>
+  <si>
+    <t>MERNISSI FATIMA ZAHRA</t>
+  </si>
+  <si>
+    <t>CR-CFC0043846/2023</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>CR-CFC0043806/2023</t>
+  </si>
+  <si>
+    <t>28/04/2023</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>CR-CFC0043802/2023</t>
+  </si>
+  <si>
+    <t>SOUGHI MERYEM</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>CR-CFC0043799/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0043798/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0043796/2023</t>
+  </si>
+  <si>
+    <t>BELGNAOUI FATIMA ZAHRA</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>CR-CFC0043791/2023</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>CR-CFC0043790/2023</t>
+  </si>
+  <si>
+    <t>ECH-CHERIF EL KETTANI Mohamed Ali</t>
+  </si>
+  <si>
+    <t>1 500,00</t>
+  </si>
+  <si>
+    <t>BELLAHCEN MEHDI</t>
+  </si>
+  <si>
+    <t>CR-CFC0043787/2023</t>
+  </si>
+  <si>
+    <t>AIT OURHROUI Mohamed</t>
+  </si>
+  <si>
+    <t>CR-CFC0043786/2023</t>
+  </si>
+  <si>
+    <t>EL AYOUBI EL IDRISSI Ali</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>BRD00015124</t>
+  </si>
+  <si>
+    <t>CR-CFC0049428/2023</t>
+  </si>
+  <si>
+    <t>22/06/2023</t>
+  </si>
+  <si>
+    <t>Semaine 24 de :12/06 à 18/06 2023</t>
+  </si>
+  <si>
+    <t>GALLOUJ SALIM</t>
+  </si>
+  <si>
+    <t>17/06/2023</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>ongle</t>
+  </si>
+  <si>
+    <t>CR-CFC0049427/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049426/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049425/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049424/2023</t>
+  </si>
+  <si>
+    <t>CHIHEB SOUMIYA</t>
+  </si>
+  <si>
+    <t>16/06/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049423/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049422/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049421/2023</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>CR-CFC0049420/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049419/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049418/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049417/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049416/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0049414/2023</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>TP-CFC0049430/2023</t>
+  </si>
+  <si>
+    <t>Travaux pratiques</t>
+  </si>
+  <si>
+    <t>2 250,00</t>
+  </si>
+  <si>
+    <t>CHAJAI SALIM</t>
+  </si>
+  <si>
+    <t>BELARABI OTHMAN</t>
+  </si>
+  <si>
+    <t>ABEROUCH LARBI</t>
+  </si>
+  <si>
+    <t>CR-CFC0049415/2023</t>
+  </si>
+  <si>
+    <t>BRD00015125</t>
+  </si>
+  <si>
+    <t>CR-CFC0046279/2023</t>
+  </si>
+  <si>
+    <t>23/06/2023</t>
+  </si>
+  <si>
+    <t>Semaine 20 de :15/05 à 21/05 2023</t>
+  </si>
+  <si>
+    <t>FAKIR EL MEHDI</t>
+  </si>
+  <si>
+    <t>19/05/2023</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>- chirurgie cutanée partie 2 Fillers (partie 1</t>
+  </si>
+  <si>
+    <t>CR-CFC0046278/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0046276/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0046275/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0046274/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0046272/2023</t>
+  </si>
+  <si>
+    <t>BENZEKRI Leila</t>
+  </si>
+  <si>
+    <t>TP-CFC0046281/2023</t>
+  </si>
+  <si>
+    <t>20/05/2023</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>3 000,00</t>
+  </si>
+  <si>
+    <t>TP-CFC0046280/2023</t>
+  </si>
+  <si>
+    <t>BRD00015400</t>
+  </si>
+  <si>
+    <t>CR-CFC0050064/2023</t>
+  </si>
+  <si>
+    <t>27/07/2023</t>
+  </si>
+  <si>
+    <t>Semaine 28 de :10/07 à 16/07 2023</t>
+  </si>
+  <si>
+    <t>CHRAIBI RIM</t>
   </si>
   <si>
     <t>15/07/2023</t>
   </si>
   <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>Prise en charge des retours veineux pulmonaires anormaux totaux</t>
-  </si>
-  <si>
-    <t>Cours</t>
-  </si>
-  <si>
-    <t>Métier-Santé</t>
+    <t xml:space="preserve">lasers, lumières et apparentés </t>
+  </si>
+  <si>
+    <t>CR-CFC0050063/2023</t>
+  </si>
+  <si>
+    <t>ZOUHAIR KAWTAR</t>
+  </si>
+  <si>
+    <t>1 875,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0050061/2023</t>
+  </si>
+  <si>
+    <t>DIKHAYE SIHAM</t>
+  </si>
+  <si>
+    <t>1 125,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0050060/2023</t>
+  </si>
+  <si>
+    <t>BENKHRABA FAOUZIA</t>
+  </si>
+  <si>
+    <t>CR-CFC0050059/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0050057/2023</t>
+  </si>
+  <si>
+    <t>BADAWI ACHRAF</t>
+  </si>
+  <si>
+    <t>14/07/2023</t>
   </si>
   <si>
     <t>0,00</t>
   </si>
   <si>
-    <t>CR-CFC0049855/2023</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>CR-CFC0049854/2023</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>CR-CFC0049853/2023</t>
-  </si>
-  <si>
-    <t>BENSEMLALI Myriam CFC</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>CR-CFC0049852/2023</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>CR-CFC0049851/2023</t>
-  </si>
-  <si>
-    <t>ATMANI Samir CFC</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>1 500,00</t>
-  </si>
-  <si>
-    <t>CR-CFC0049850/2023</t>
-  </si>
-  <si>
-    <t>CHEIKHAOUI YOUNES</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>CR-CFC0049849/2023</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>CR-CFC0049848/2023</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>10:30</t>
+    <t>CR-CFC0050056/2023</t>
+  </si>
+  <si>
+    <t>BRD00015477</t>
+  </si>
+  <si>
+    <t>CR-CFC0052465/2023</t>
+  </si>
+  <si>
+    <t>09/10/2023</t>
+  </si>
+  <si>
+    <t>Semaine 37 de :12/09 à 18/09 2022</t>
+  </si>
+  <si>
+    <t>16/09/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toxine botulinique </t>
+  </si>
+  <si>
+    <t>CR-CFC0052464/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0052463/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0052462/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0052461/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0052459/2023</t>
+  </si>
+  <si>
+    <t>ALIX TOMAS (Etranger)</t>
+  </si>
+  <si>
+    <t>CR-CFC0052458/2023</t>
+  </si>
+  <si>
+    <t>15/09/2023</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>4 500,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0052457/2023</t>
+  </si>
+  <si>
+    <t>MICHELLE PELLETIER (Etranger)</t>
+  </si>
+  <si>
+    <t>CR-CFC0052456/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0052449/2023</t>
+  </si>
+  <si>
+    <t>BRD00015592</t>
+  </si>
+  <si>
+    <t>CR-CFC0056577/2023</t>
+  </si>
+  <si>
+    <t>Semaine 40 de :03/10 à 09/10 2022</t>
+  </si>
+  <si>
+    <t>7/10/2023</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>technique de régénération tissulaire peeling, mésothérapie, PRP, microneedling</t>
+  </si>
+  <si>
+    <t>7 875,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0056576/2023</t>
+  </si>
+  <si>
+    <t>MICHEL DAVID</t>
+  </si>
+  <si>
+    <t>AGNES EHLINGER</t>
+  </si>
+  <si>
+    <t>CR-CFC0056574/2023</t>
+  </si>
+  <si>
+    <t>6/10/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0056572/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0056571/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0056570/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0056569/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0056568/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0056567/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0056566/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0056565/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0056564/2023</t>
+  </si>
+  <si>
+    <t>BRD00015758</t>
+  </si>
+  <si>
+    <t>CR-CFC0070640/2023</t>
+  </si>
+  <si>
+    <t>29/11/2023</t>
+  </si>
+  <si>
+    <t>Semaine 45 de :07/11 à 13/11 2022</t>
+  </si>
+  <si>
+    <t>11/11/2023</t>
+  </si>
+  <si>
+    <t>Martine Baspeyras .</t>
+  </si>
+  <si>
+    <t>CR-CFC0070639/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0070638/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0070637/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0070636/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0070635/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0070634/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0070633/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0070631/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0070630/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamada Syrine</t>
+  </si>
+  <si>
+    <t>BRD00015822</t>
+  </si>
+  <si>
+    <t>TP-CFC0076845/2023</t>
+  </si>
+  <si>
+    <t>27/12/2023</t>
+  </si>
+  <si>
+    <t>Semaine 50 de :12/12 à 18/12 2022</t>
+  </si>
+  <si>
+    <t>16/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> capillaire</t>
+  </si>
+  <si>
+    <t>CR-CFC0076844/2023</t>
+  </si>
+  <si>
+    <t>KELLATI AWATEF</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0076843/2023</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>CR-CFC0076842/2023</t>
+  </si>
+  <si>
+    <t>YAZIDI Yazid</t>
+  </si>
+  <si>
+    <t>CR-CFC0076841/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0076840/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0076839/2023</t>
+  </si>
+  <si>
+    <t>MEZIANE MARIAME (CFC)</t>
+  </si>
+  <si>
+    <t>CR-CFC0076838/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0076837/2023</t>
+  </si>
+  <si>
+    <t>SENOUCI  KARIMA</t>
   </si>
 </sst>
 </file>
@@ -524,7 +1061,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +1160,7 @@
         <v>27</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
         <v>28</v>
@@ -654,7 +1191,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -672,19 +1209,19 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
@@ -706,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -715,45 +1252,45 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
       <c r="R4"/>
       <c r="S4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -761,54 +1298,54 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
       </c>
       <c r="R5"/>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -816,54 +1353,54 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
         <v>32</v>
       </c>
       <c r="R6"/>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -871,54 +1408,54 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
       </c>
       <c r="R7"/>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -926,54 +1463,54 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="s">
         <v>32</v>
       </c>
       <c r="R8"/>
       <c r="S8" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -981,54 +1518,54 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
         <v>32</v>
       </c>
       <c r="R9"/>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1036,54 +1573,54 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
         <v>32</v>
       </c>
       <c r="R10"/>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1091,54 +1628,54 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="s">
         <v>32</v>
       </c>
       <c r="R11"/>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1146,54 +1683,5059 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q12" t="s">
         <v>32</v>
       </c>
       <c r="R12"/>
       <c r="S12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17"/>
+      <c r="S17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>93</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22"/>
+      <c r="S22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24"/>
+      <c r="S24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25"/>
+      <c r="S25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26"/>
+      <c r="S26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27"/>
+      <c r="S27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28" t="s">
+        <v>94</v>
+      </c>
+      <c r="P28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28"/>
+      <c r="S28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29"/>
+      <c r="S29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30" t="s">
+        <v>94</v>
+      </c>
+      <c r="P30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" t="s">
+        <v>54</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31"/>
+      <c r="S31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32" t="s">
+        <v>94</v>
+      </c>
+      <c r="P32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32"/>
+      <c r="S32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P33" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33"/>
+      <c r="S33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34">
         <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34"/>
+      <c r="S34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35" t="s">
+        <v>94</v>
+      </c>
+      <c r="P35" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35"/>
+      <c r="S35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36" t="s">
+        <v>94</v>
+      </c>
+      <c r="P36" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36"/>
+      <c r="S36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37" t="s">
+        <v>94</v>
+      </c>
+      <c r="P37" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37"/>
+      <c r="S37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38" t="s">
+        <v>94</v>
+      </c>
+      <c r="P38" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>32</v>
+      </c>
+      <c r="R38"/>
+      <c r="S38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39"/>
+      <c r="S39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" t="s">
+        <v>124</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" t="s">
+        <v>125</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40" t="s">
+        <v>126</v>
+      </c>
+      <c r="P40" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40"/>
+      <c r="S40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" t="s">
+        <v>124</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" t="s">
+        <v>70</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41" t="s">
+        <v>126</v>
+      </c>
+      <c r="P41" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41"/>
+      <c r="S41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42" t="s">
+        <v>75</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42" t="s">
+        <v>126</v>
+      </c>
+      <c r="P42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42"/>
+      <c r="S42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43" t="s">
+        <v>126</v>
+      </c>
+      <c r="P43" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43"/>
+      <c r="S43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>54</v>
+      </c>
+      <c r="M44" t="s">
+        <v>93</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44" t="s">
+        <v>126</v>
+      </c>
+      <c r="P44" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>32</v>
+      </c>
+      <c r="R44"/>
+      <c r="S44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" t="s">
+        <v>124</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>86</v>
+      </c>
+      <c r="M45" t="s">
+        <v>54</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45" t="s">
+        <v>126</v>
+      </c>
+      <c r="P45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45"/>
+      <c r="S45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s">
+        <v>134</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46" t="s">
+        <v>51</v>
+      </c>
+      <c r="M46" t="s">
+        <v>135</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46" t="s">
+        <v>126</v>
+      </c>
+      <c r="P46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46"/>
+      <c r="S46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>51</v>
+      </c>
+      <c r="M47" t="s">
+        <v>135</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47"/>
+      <c r="S47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" t="s">
+        <v>122</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s">
+        <v>134</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" t="s">
+        <v>104</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48" t="s">
+        <v>126</v>
+      </c>
+      <c r="P48" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48"/>
+      <c r="S48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" t="s">
+        <v>134</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49" t="s">
+        <v>86</v>
+      </c>
+      <c r="M49" t="s">
+        <v>104</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49" t="s">
+        <v>126</v>
+      </c>
+      <c r="P49" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49"/>
+      <c r="S49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" t="s">
+        <v>143</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" t="s">
+        <v>70</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50" t="s">
+        <v>144</v>
+      </c>
+      <c r="P50" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50"/>
+      <c r="S50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" t="s">
+        <v>140</v>
+      </c>
+      <c r="H51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" t="s">
+        <v>146</v>
+      </c>
+      <c r="J51" t="s">
+        <v>143</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>70</v>
+      </c>
+      <c r="M51" t="s">
+        <v>135</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51"/>
+      <c r="S51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I52" t="s">
+        <v>149</v>
+      </c>
+      <c r="J52" t="s">
+        <v>143</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" t="s">
+        <v>67</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52" t="s">
+        <v>144</v>
+      </c>
+      <c r="P52" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>32</v>
+      </c>
+      <c r="R52"/>
+      <c r="S52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" t="s">
+        <v>152</v>
+      </c>
+      <c r="J53" t="s">
+        <v>143</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>54</v>
+      </c>
+      <c r="M53" t="s">
+        <v>55</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53" t="s">
+        <v>144</v>
+      </c>
+      <c r="P53" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R53"/>
+      <c r="S53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" t="s">
+        <v>152</v>
+      </c>
+      <c r="J54" t="s">
+        <v>143</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54" t="s">
+        <v>86</v>
+      </c>
+      <c r="M54" t="s">
+        <v>54</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54" t="s">
+        <v>144</v>
+      </c>
+      <c r="P54" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>32</v>
+      </c>
+      <c r="R54"/>
+      <c r="S54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I55" t="s">
+        <v>155</v>
+      </c>
+      <c r="J55" t="s">
+        <v>156</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55" t="s">
+        <v>77</v>
+      </c>
+      <c r="M55" t="s">
+        <v>125</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55" t="s">
+        <v>144</v>
+      </c>
+      <c r="P55" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55"/>
+      <c r="S55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" t="s">
+        <v>155</v>
+      </c>
+      <c r="J56" t="s">
+        <v>156</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M56" t="s">
+        <v>104</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56" t="s">
+        <v>144</v>
+      </c>
+      <c r="P56" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>32</v>
+      </c>
+      <c r="R56"/>
+      <c r="S56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" t="s">
+        <v>142</v>
+      </c>
+      <c r="J57" t="s">
+        <v>163</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>70</v>
+      </c>
+      <c r="M57" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57" t="s">
+        <v>164</v>
+      </c>
+      <c r="P57" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R57"/>
+      <c r="S57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" t="s">
+        <v>161</v>
+      </c>
+      <c r="H58" t="s">
+        <v>162</v>
+      </c>
+      <c r="I58" t="s">
+        <v>142</v>
+      </c>
+      <c r="J58" t="s">
+        <v>163</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58" t="s">
+        <v>70</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58" t="s">
+        <v>164</v>
+      </c>
+      <c r="P58" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58"/>
+      <c r="S58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" t="s">
+        <v>161</v>
+      </c>
+      <c r="H59" t="s">
+        <v>162</v>
+      </c>
+      <c r="I59" t="s">
+        <v>142</v>
+      </c>
+      <c r="J59" t="s">
+        <v>163</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59" t="s">
+        <v>75</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59" t="s">
+        <v>164</v>
+      </c>
+      <c r="P59" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59"/>
+      <c r="S59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" t="s">
+        <v>161</v>
+      </c>
+      <c r="H60" t="s">
+        <v>162</v>
+      </c>
+      <c r="I60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s">
+        <v>163</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>66</v>
+      </c>
+      <c r="M60" t="s">
+        <v>104</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60" t="s">
+        <v>164</v>
+      </c>
+      <c r="P60" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60"/>
+      <c r="S60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" t="s">
+        <v>162</v>
+      </c>
+      <c r="I61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" t="s">
+        <v>163</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>93</v>
+      </c>
+      <c r="M61" t="s">
+        <v>66</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61" t="s">
+        <v>164</v>
+      </c>
+      <c r="P61" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>32</v>
+      </c>
+      <c r="R61"/>
+      <c r="S61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H62" t="s">
+        <v>162</v>
+      </c>
+      <c r="I62" t="s">
+        <v>170</v>
+      </c>
+      <c r="J62" t="s">
+        <v>163</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" t="s">
+        <v>54</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62" t="s">
+        <v>164</v>
+      </c>
+      <c r="P62" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>32</v>
+      </c>
+      <c r="R62"/>
+      <c r="S62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" t="s">
+        <v>162</v>
+      </c>
+      <c r="I63" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" t="s">
+        <v>172</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
+      </c>
+      <c r="L63" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" t="s">
+        <v>173</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63" t="s">
+        <v>164</v>
+      </c>
+      <c r="P63" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>32</v>
+      </c>
+      <c r="R63"/>
+      <c r="S63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" t="s">
+        <v>161</v>
+      </c>
+      <c r="H64" t="s">
+        <v>162</v>
+      </c>
+      <c r="I64" t="s">
+        <v>142</v>
+      </c>
+      <c r="J64" t="s">
+        <v>172</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+      <c r="L64" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" t="s">
+        <v>173</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64" t="s">
+        <v>164</v>
+      </c>
+      <c r="P64" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>32</v>
+      </c>
+      <c r="R64"/>
+      <c r="S64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" t="s">
+        <v>161</v>
+      </c>
+      <c r="H65" t="s">
+        <v>162</v>
+      </c>
+      <c r="I65" t="s">
+        <v>176</v>
+      </c>
+      <c r="J65" t="s">
+        <v>172</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>55</v>
+      </c>
+      <c r="M65" t="s">
+        <v>104</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65" t="s">
+        <v>164</v>
+      </c>
+      <c r="P65" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>32</v>
+      </c>
+      <c r="R65"/>
+      <c r="S65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" t="s">
+        <v>161</v>
+      </c>
+      <c r="H66" t="s">
+        <v>162</v>
+      </c>
+      <c r="I66" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" t="s">
+        <v>172</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66" t="s">
+        <v>54</v>
+      </c>
+      <c r="M66" t="s">
+        <v>104</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66" t="s">
+        <v>164</v>
+      </c>
+      <c r="P66" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>32</v>
+      </c>
+      <c r="R66"/>
+      <c r="S66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" t="s">
+        <v>161</v>
+      </c>
+      <c r="H67" t="s">
+        <v>162</v>
+      </c>
+      <c r="I67" t="s">
+        <v>142</v>
+      </c>
+      <c r="J67" t="s">
+        <v>172</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67" t="s">
+        <v>86</v>
+      </c>
+      <c r="M67" t="s">
+        <v>54</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67" t="s">
+        <v>164</v>
+      </c>
+      <c r="P67" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>32</v>
+      </c>
+      <c r="R67"/>
+      <c r="S67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s">
+        <v>181</v>
+      </c>
+      <c r="I68" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" t="s">
+        <v>182</v>
+      </c>
+      <c r="K68">
+        <v>10</v>
+      </c>
+      <c r="L68" t="s">
+        <v>86</v>
+      </c>
+      <c r="M68" t="s">
+        <v>183</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68" t="s">
+        <v>184</v>
+      </c>
+      <c r="P68" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>32</v>
+      </c>
+      <c r="R68"/>
+      <c r="S68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s">
+        <v>181</v>
+      </c>
+      <c r="I69" t="s">
+        <v>187</v>
+      </c>
+      <c r="J69" t="s">
+        <v>182</v>
+      </c>
+      <c r="K69">
+        <v>10</v>
+      </c>
+      <c r="L69" t="s">
+        <v>86</v>
+      </c>
+      <c r="M69" t="s">
+        <v>183</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69" t="s">
+        <v>184</v>
+      </c>
+      <c r="P69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>32</v>
+      </c>
+      <c r="R69"/>
+      <c r="S69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s">
+        <v>181</v>
+      </c>
+      <c r="I70" t="s">
+        <v>188</v>
+      </c>
+      <c r="J70" t="s">
+        <v>182</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70" t="s">
+        <v>86</v>
+      </c>
+      <c r="M70" t="s">
+        <v>183</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70" t="s">
+        <v>184</v>
+      </c>
+      <c r="P70" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>32</v>
+      </c>
+      <c r="R70"/>
+      <c r="S70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s">
+        <v>181</v>
+      </c>
+      <c r="I71" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" t="s">
+        <v>190</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71" t="s">
+        <v>49</v>
+      </c>
+      <c r="M71" t="s">
+        <v>125</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71" t="s">
+        <v>184</v>
+      </c>
+      <c r="P71" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>32</v>
+      </c>
+      <c r="R71"/>
+      <c r="S71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I72" t="s">
+        <v>74</v>
+      </c>
+      <c r="J72" t="s">
+        <v>190</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>51</v>
+      </c>
+      <c r="M72" t="s">
+        <v>75</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72" t="s">
+        <v>184</v>
+      </c>
+      <c r="P72" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>32</v>
+      </c>
+      <c r="R72"/>
+      <c r="S72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s">
+        <v>181</v>
+      </c>
+      <c r="I73" t="s">
+        <v>74</v>
+      </c>
+      <c r="J73" t="s">
+        <v>190</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>77</v>
+      </c>
+      <c r="M73" t="s">
+        <v>51</v>
+      </c>
+      <c r="N73"/>
+      <c r="O73" t="s">
+        <v>184</v>
+      </c>
+      <c r="P73" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>32</v>
+      </c>
+      <c r="R73"/>
+      <c r="S73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s">
+        <v>181</v>
+      </c>
+      <c r="I74" t="s">
+        <v>188</v>
+      </c>
+      <c r="J74" t="s">
+        <v>190</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74" t="s">
+        <v>66</v>
+      </c>
+      <c r="M74" t="s">
+        <v>75</v>
+      </c>
+      <c r="N74"/>
+      <c r="O74" t="s">
+        <v>184</v>
+      </c>
+      <c r="P74" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>32</v>
+      </c>
+      <c r="R74"/>
+      <c r="S74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>181</v>
+      </c>
+      <c r="I75" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" t="s">
+        <v>190</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M75" t="s">
+        <v>66</v>
+      </c>
+      <c r="N75"/>
+      <c r="O75" t="s">
+        <v>184</v>
+      </c>
+      <c r="P75" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>32</v>
+      </c>
+      <c r="R75"/>
+      <c r="S75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I76" t="s">
+        <v>187</v>
+      </c>
+      <c r="J76" t="s">
+        <v>190</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76" t="s">
+        <v>93</v>
+      </c>
+      <c r="M76" t="s">
+        <v>77</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76" t="s">
+        <v>184</v>
+      </c>
+      <c r="P76" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>32</v>
+      </c>
+      <c r="R76"/>
+      <c r="S76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s">
+        <v>181</v>
+      </c>
+      <c r="I77" t="s">
+        <v>187</v>
+      </c>
+      <c r="J77" t="s">
+        <v>190</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>54</v>
+      </c>
+      <c r="M77" t="s">
+        <v>55</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77" t="s">
+        <v>184</v>
+      </c>
+      <c r="P77" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>32</v>
+      </c>
+      <c r="R77"/>
+      <c r="S77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s">
+        <v>181</v>
+      </c>
+      <c r="I78" t="s">
+        <v>188</v>
+      </c>
+      <c r="J78" t="s">
+        <v>190</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>58</v>
+      </c>
+      <c r="M78" t="s">
+        <v>93</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78" t="s">
+        <v>184</v>
+      </c>
+      <c r="P78" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>32</v>
+      </c>
+      <c r="R78"/>
+      <c r="S78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" t="s">
+        <v>181</v>
+      </c>
+      <c r="I79" t="s">
+        <v>187</v>
+      </c>
+      <c r="J79" t="s">
+        <v>190</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>28</v>
+      </c>
+      <c r="M79" t="s">
+        <v>58</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79" t="s">
+        <v>184</v>
+      </c>
+      <c r="P79" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>32</v>
+      </c>
+      <c r="R79"/>
+      <c r="S79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s">
+        <v>181</v>
+      </c>
+      <c r="I80" t="s">
+        <v>187</v>
+      </c>
+      <c r="J80" t="s">
+        <v>190</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>86</v>
+      </c>
+      <c r="M80" t="s">
+        <v>58</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80" t="s">
+        <v>184</v>
+      </c>
+      <c r="P80" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>32</v>
+      </c>
+      <c r="R80"/>
+      <c r="S80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" t="s">
+        <v>202</v>
+      </c>
+      <c r="H81" t="s">
+        <v>203</v>
+      </c>
+      <c r="I81" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81" t="s">
+        <v>204</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81" t="s">
+        <v>77</v>
+      </c>
+      <c r="M81" t="s">
+        <v>125</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81" t="s">
+        <v>184</v>
+      </c>
+      <c r="P81" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>32</v>
+      </c>
+      <c r="R81"/>
+      <c r="S81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s">
+        <v>202</v>
+      </c>
+      <c r="H82" t="s">
+        <v>203</v>
+      </c>
+      <c r="I82" t="s">
+        <v>152</v>
+      </c>
+      <c r="J82" t="s">
+        <v>204</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82" t="s">
+        <v>77</v>
+      </c>
+      <c r="M82" t="s">
+        <v>125</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82" t="s">
+        <v>184</v>
+      </c>
+      <c r="P82" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>32</v>
+      </c>
+      <c r="R82"/>
+      <c r="S82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s">
+        <v>202</v>
+      </c>
+      <c r="H83" t="s">
+        <v>203</v>
+      </c>
+      <c r="I83" t="s">
+        <v>205</v>
+      </c>
+      <c r="J83" t="s">
+        <v>204</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83" t="s">
+        <v>77</v>
+      </c>
+      <c r="M83" t="s">
+        <v>125</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83" t="s">
+        <v>184</v>
+      </c>
+      <c r="P83" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>32</v>
+      </c>
+      <c r="R83"/>
+      <c r="S83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" t="s">
+        <v>38</v>
+      </c>
+      <c r="G84" t="s">
+        <v>202</v>
+      </c>
+      <c r="H84" t="s">
+        <v>203</v>
+      </c>
+      <c r="I84" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s">
+        <v>204</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84" t="s">
+        <v>86</v>
+      </c>
+      <c r="M84" t="s">
+        <v>104</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84" t="s">
+        <v>184</v>
+      </c>
+      <c r="P84" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>32</v>
+      </c>
+      <c r="R84"/>
+      <c r="S84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s">
+        <v>202</v>
+      </c>
+      <c r="H85" t="s">
+        <v>203</v>
+      </c>
+      <c r="I85" t="s">
+        <v>152</v>
+      </c>
+      <c r="J85" t="s">
+        <v>204</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85" t="s">
+        <v>86</v>
+      </c>
+      <c r="M85" t="s">
+        <v>104</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85" t="s">
+        <v>184</v>
+      </c>
+      <c r="P85" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>32</v>
+      </c>
+      <c r="R85"/>
+      <c r="S85" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" t="s">
+        <v>202</v>
+      </c>
+      <c r="H86" t="s">
+        <v>203</v>
+      </c>
+      <c r="I86" t="s">
+        <v>205</v>
+      </c>
+      <c r="J86" t="s">
+        <v>204</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86" t="s">
+        <v>86</v>
+      </c>
+      <c r="M86" t="s">
+        <v>104</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86" t="s">
+        <v>184</v>
+      </c>
+      <c r="P86" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>32</v>
+      </c>
+      <c r="R86"/>
+      <c r="S86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" t="s">
+        <v>202</v>
+      </c>
+      <c r="H87" t="s">
+        <v>203</v>
+      </c>
+      <c r="I87" t="s">
+        <v>205</v>
+      </c>
+      <c r="J87" t="s">
+        <v>208</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>125</v>
+      </c>
+      <c r="M87" t="s">
+        <v>135</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87" t="s">
+        <v>184</v>
+      </c>
+      <c r="P87" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>32</v>
+      </c>
+      <c r="R87"/>
+      <c r="S87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" t="s">
+        <v>37</v>
+      </c>
+      <c r="F88" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" t="s">
+        <v>202</v>
+      </c>
+      <c r="H88" t="s">
+        <v>203</v>
+      </c>
+      <c r="I88" t="s">
+        <v>205</v>
+      </c>
+      <c r="J88" t="s">
+        <v>208</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88" t="s">
+        <v>125</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88" t="s">
+        <v>184</v>
+      </c>
+      <c r="P88" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>32</v>
+      </c>
+      <c r="R88"/>
+      <c r="S88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" t="s">
+        <v>202</v>
+      </c>
+      <c r="H89" t="s">
+        <v>203</v>
+      </c>
+      <c r="I89" t="s">
+        <v>205</v>
+      </c>
+      <c r="J89" t="s">
+        <v>208</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>43</v>
+      </c>
+      <c r="M89" t="s">
+        <v>29</v>
+      </c>
+      <c r="N89"/>
+      <c r="O89" t="s">
+        <v>184</v>
+      </c>
+      <c r="P89" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>32</v>
+      </c>
+      <c r="R89"/>
+      <c r="S89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G90" t="s">
+        <v>202</v>
+      </c>
+      <c r="H90" t="s">
+        <v>203</v>
+      </c>
+      <c r="I90" t="s">
+        <v>74</v>
+      </c>
+      <c r="J90" t="s">
+        <v>208</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>70</v>
+      </c>
+      <c r="M90" t="s">
+        <v>43</v>
+      </c>
+      <c r="N90"/>
+      <c r="O90" t="s">
+        <v>184</v>
+      </c>
+      <c r="P90" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>32</v>
+      </c>
+      <c r="R90"/>
+      <c r="S90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s">
+        <v>202</v>
+      </c>
+      <c r="H91" t="s">
+        <v>203</v>
+      </c>
+      <c r="I91" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" t="s">
+        <v>208</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>75</v>
+      </c>
+      <c r="M91" t="s">
+        <v>70</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91" t="s">
+        <v>184</v>
+      </c>
+      <c r="P91" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>32</v>
+      </c>
+      <c r="R91"/>
+      <c r="S91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" t="s">
+        <v>202</v>
+      </c>
+      <c r="H92" t="s">
+        <v>203</v>
+      </c>
+      <c r="I92" t="s">
+        <v>205</v>
+      </c>
+      <c r="J92" t="s">
+        <v>208</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92" t="s">
+        <v>93</v>
+      </c>
+      <c r="M92" t="s">
+        <v>67</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92" t="s">
+        <v>184</v>
+      </c>
+      <c r="P92" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>32</v>
+      </c>
+      <c r="R92"/>
+      <c r="S92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" t="s">
+        <v>202</v>
+      </c>
+      <c r="H93" t="s">
+        <v>203</v>
+      </c>
+      <c r="I93" t="s">
+        <v>205</v>
+      </c>
+      <c r="J93" t="s">
+        <v>208</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>28</v>
+      </c>
+      <c r="M93" t="s">
+        <v>54</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93" t="s">
+        <v>184</v>
+      </c>
+      <c r="P93" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>32</v>
+      </c>
+      <c r="R93"/>
+      <c r="S93" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" t="s">
+        <v>202</v>
+      </c>
+      <c r="H94" t="s">
+        <v>203</v>
+      </c>
+      <c r="I94" t="s">
+        <v>216</v>
+      </c>
+      <c r="J94" t="s">
+        <v>208</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>86</v>
+      </c>
+      <c r="M94" t="s">
+        <v>28</v>
+      </c>
+      <c r="N94"/>
+      <c r="O94" t="s">
+        <v>184</v>
+      </c>
+      <c r="P94" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>32</v>
+      </c>
+      <c r="R94"/>
+      <c r="S94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s">
+        <v>219</v>
+      </c>
+      <c r="H95" t="s">
+        <v>220</v>
+      </c>
+      <c r="I95" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95" t="s">
+        <v>221</v>
+      </c>
+      <c r="K95">
+        <v>10</v>
+      </c>
+      <c r="L95" t="s">
+        <v>86</v>
+      </c>
+      <c r="M95" t="s">
+        <v>183</v>
+      </c>
+      <c r="N95"/>
+      <c r="O95" t="s">
+        <v>222</v>
+      </c>
+      <c r="P95" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>32</v>
+      </c>
+      <c r="R95"/>
+      <c r="S95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" t="s">
+        <v>219</v>
+      </c>
+      <c r="H96" t="s">
+        <v>220</v>
+      </c>
+      <c r="I96" t="s">
+        <v>224</v>
+      </c>
+      <c r="J96" t="s">
+        <v>225</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>44</v>
+      </c>
+      <c r="M96" t="s">
+        <v>135</v>
+      </c>
+      <c r="N96"/>
+      <c r="O96" t="s">
+        <v>222</v>
+      </c>
+      <c r="P96" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>32</v>
+      </c>
+      <c r="R96"/>
+      <c r="S96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>217</v>
+      </c>
+      <c r="C97" t="s">
+        <v>226</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" t="s">
+        <v>219</v>
+      </c>
+      <c r="H97" t="s">
+        <v>220</v>
+      </c>
+      <c r="I97" t="s">
+        <v>224</v>
+      </c>
+      <c r="J97" t="s">
+        <v>225</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>125</v>
+      </c>
+      <c r="M97" t="s">
+        <v>227</v>
+      </c>
+      <c r="N97"/>
+      <c r="O97" t="s">
+        <v>222</v>
+      </c>
+      <c r="P97" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>32</v>
+      </c>
+      <c r="R97"/>
+      <c r="S97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" t="s">
+        <v>219</v>
+      </c>
+      <c r="H98" t="s">
+        <v>220</v>
+      </c>
+      <c r="I98" t="s">
+        <v>229</v>
+      </c>
+      <c r="J98" t="s">
+        <v>225</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>51</v>
+      </c>
+      <c r="M98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98" t="s">
+        <v>222</v>
+      </c>
+      <c r="P98" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>32</v>
+      </c>
+      <c r="R98"/>
+      <c r="S98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s">
+        <v>219</v>
+      </c>
+      <c r="H99" t="s">
+        <v>220</v>
+      </c>
+      <c r="I99" t="s">
+        <v>142</v>
+      </c>
+      <c r="J99" t="s">
+        <v>225</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>29</v>
+      </c>
+      <c r="M99" t="s">
+        <v>44</v>
+      </c>
+      <c r="N99"/>
+      <c r="O99" t="s">
+        <v>222</v>
+      </c>
+      <c r="P99" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>32</v>
+      </c>
+      <c r="R99"/>
+      <c r="S99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s">
+        <v>219</v>
+      </c>
+      <c r="H100" t="s">
+        <v>220</v>
+      </c>
+      <c r="I100" t="s">
+        <v>142</v>
+      </c>
+      <c r="J100" t="s">
+        <v>225</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>70</v>
+      </c>
+      <c r="M100" t="s">
+        <v>29</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100" t="s">
+        <v>222</v>
+      </c>
+      <c r="P100" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>32</v>
+      </c>
+      <c r="R100"/>
+      <c r="S100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101" t="s">
+        <v>219</v>
+      </c>
+      <c r="H101" t="s">
+        <v>220</v>
+      </c>
+      <c r="I101" t="s">
+        <v>233</v>
+      </c>
+      <c r="J101" t="s">
+        <v>225</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>54</v>
+      </c>
+      <c r="M101" t="s">
+        <v>66</v>
+      </c>
+      <c r="N101"/>
+      <c r="O101" t="s">
+        <v>222</v>
+      </c>
+      <c r="P101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>32</v>
+      </c>
+      <c r="R101"/>
+      <c r="S101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" t="s">
+        <v>219</v>
+      </c>
+      <c r="H102" t="s">
+        <v>220</v>
+      </c>
+      <c r="I102" t="s">
+        <v>233</v>
+      </c>
+      <c r="J102" t="s">
+        <v>225</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>63</v>
+      </c>
+      <c r="M102" t="s">
+        <v>54</v>
+      </c>
+      <c r="N102"/>
+      <c r="O102" t="s">
+        <v>222</v>
+      </c>
+      <c r="P102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>32</v>
+      </c>
+      <c r="R102"/>
+      <c r="S102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" t="s">
+        <v>235</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" t="s">
+        <v>219</v>
+      </c>
+      <c r="H103" t="s">
+        <v>220</v>
+      </c>
+      <c r="I103" t="s">
+        <v>236</v>
+      </c>
+      <c r="J103" t="s">
+        <v>225</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>86</v>
+      </c>
+      <c r="M103" t="s">
+        <v>63</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103" t="s">
+        <v>222</v>
+      </c>
+      <c r="P103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>32</v>
+      </c>
+      <c r="R103"/>
+      <c r="S103" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/honoraire/Report_2.xlsx
+++ b/public/uploads/honoraire/Report_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t>N°</t>
   </si>
@@ -74,10 +74,10 @@
     <t>MT</t>
   </si>
   <si>
-    <t>BRD00015591</t>
-  </si>
-  <si>
-    <t>ST-CFC0070168/2023</t>
+    <t>BRD00016089</t>
+  </si>
+  <si>
+    <t>ST-CFC0079987/2024</t>
   </si>
   <si>
     <t>Centre de la Formation Continue</t>
@@ -89,643 +89,697 @@
     <t>Promotion 4</t>
   </si>
   <si>
-    <t>05/11/2023</t>
-  </si>
-  <si>
-    <t>Semaine 44 de :02/11 à 06/11 2020</t>
+    <t>22/01/2024</t>
+  </si>
+  <si>
+    <t>Semaine 3 de :18/01 à 22/01 2021</t>
+  </si>
+  <si>
+    <t>SEFRIOUI Amal</t>
+  </si>
+  <si>
+    <t>17/01/2024</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>Stages Cliniques</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Métier-Santé</t>
+  </si>
+  <si>
+    <t>3 750,00</t>
   </si>
   <si>
     <t>BENJELLOUN LAILA</t>
   </si>
   <si>
-    <t>1/11/2023</t>
+    <t>BENYAHIA HASNAE</t>
+  </si>
+  <si>
+    <t>BENNANI ABDELKADER</t>
+  </si>
+  <si>
+    <t>ST-CFC0079986/2024</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>2 250,00</t>
+  </si>
+  <si>
+    <t>BRD00016203</t>
+  </si>
+  <si>
+    <t>CR-CFC0080005/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DU LASERS, DERMATOLOGIE  ESTHÉTIQUE, RÉGÉNÉRATIVE  ET CHIRURGICALE </t>
+  </si>
+  <si>
+    <t>Promotion 1</t>
+  </si>
+  <si>
+    <t>25/01/2024</t>
+  </si>
+  <si>
+    <t>Semaine 3 de :16/01 à 22/01 2023</t>
+  </si>
+  <si>
+    <t>BELGNAOUI FATIMA ZAHRA</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fils tenseurs </t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>CR-CFC0080004/2024</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>Stages Cliniques</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>Métier-Santé</t>
-  </si>
-  <si>
-    <t>5 250,00</t>
-  </si>
-  <si>
-    <t>BENNANI ABDELKADER</t>
-  </si>
-  <si>
-    <t>BRD00015115</t>
-  </si>
-  <si>
-    <t>CR-CFC0043875/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DU LASERS, DERMATOLOGIE  ESTHÉTIQUE, RÉGÉNÉRATIVE  ET CHIRURGICALE </t>
-  </si>
-  <si>
-    <t>Promotion 1</t>
-  </si>
-  <si>
-    <t>19/06/2023</t>
-  </si>
-  <si>
-    <t>Semaine 17 de :24/04 à 30/04 2023</t>
-  </si>
-  <si>
-    <t>OUALI KARIM</t>
-  </si>
-  <si>
-    <t>29/04/2023</t>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>BRD00016204</t>
+  </si>
+  <si>
+    <t>CR-CFC0079985/2024</t>
+  </si>
+  <si>
+    <t>DU NATIONAL D'ALLERGOLOGIE</t>
+  </si>
+  <si>
+    <t>Première Année</t>
+  </si>
+  <si>
+    <t>Semaine 3 de :15/01 à 21/01 2024</t>
+  </si>
+  <si>
+    <t>ISMAILI Nadia</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>Epidémiologie</t>
+  </si>
+  <si>
+    <t>750,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0079927/2024</t>
+  </si>
+  <si>
+    <t>DEGEORGES VITTE JOELLE ( Etranger)</t>
+  </si>
+  <si>
+    <t>21/01/2024</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0079926/2024</t>
+  </si>
+  <si>
+    <t>FLABBEE JENNY</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>CR-CFC0079925/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079924/2024</t>
+  </si>
+  <si>
+    <t>EL GUEDDARI YOUNESS</t>
+  </si>
+  <si>
+    <t>20/01/2024</t>
   </si>
   <si>
     <t>16:30</t>
   </si>
   <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>1 500,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0079923/2024</t>
+  </si>
+  <si>
+    <t>BUTENDA BABAPU DOMINIQUE</t>
+  </si>
+  <si>
+    <t>CR-CFC0079922/2024</t>
+  </si>
+  <si>
+    <t>CHAFIQ MAHRAOUI</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>CR-CFC0079921/2024</t>
+  </si>
+  <si>
+    <t>EL FASSY FIHRY MOHAMED TAWFIK</t>
+  </si>
+  <si>
+    <t>CR-CFC0079919/2024</t>
+  </si>
+  <si>
+    <t>ADMOU BRAHIM</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
     <t>17:30</t>
   </si>
   <si>
-    <t>physiologie cutanée  -	Chirurgie cutanée (partie 1)</t>
-  </si>
-  <si>
-    <t>Cours</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>CR-CFC0043874/2023</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>CR-CFC0043873/2023</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>CR-CFC0043864/2023</t>
-  </si>
-  <si>
-    <t>BAY BAY HANANE</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>CR-CFC0043862/2023</t>
-  </si>
-  <si>
-    <t>CHAKIRI RADIA</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>CR-CFC0043854/2023</t>
-  </si>
-  <si>
-    <t>MERNISSI FATIMA ZAHRA</t>
-  </si>
-  <si>
-    <t>CR-CFC0043846/2023</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>CR-CFC0043806/2023</t>
-  </si>
-  <si>
-    <t>28/04/2023</t>
+    <t>CR-CFC0079918/2024</t>
+  </si>
+  <si>
+    <t>SEFIANI Abdelaziz</t>
+  </si>
+  <si>
+    <t>CR-CFC0079917/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079916/2024</t>
+  </si>
+  <si>
+    <t>BRD00016205</t>
+  </si>
+  <si>
+    <t>TP-CFC0079202/2024</t>
+  </si>
+  <si>
+    <t>DU D’ENDODONTIE CLINIQUE</t>
+  </si>
+  <si>
+    <t>Semaine 1 de :01/01 à 07/01 2024</t>
+  </si>
+  <si>
+    <t>EL ARROUF NISRINE</t>
+  </si>
+  <si>
+    <t>7/01/2024</t>
+  </si>
+  <si>
+    <t>Démarche diagnostique et planification thérapeutique</t>
+  </si>
+  <si>
+    <t>Travaux pratiques</t>
+  </si>
+  <si>
+    <t>CHKOURA Ahmed FC</t>
+  </si>
+  <si>
+    <t>TP-CFC0079201/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079200/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079199/2024</t>
+  </si>
+  <si>
+    <t>TP-CFC0079198/2024</t>
+  </si>
+  <si>
+    <t>6/01/2024</t>
+  </si>
+  <si>
+    <t>EL KHOURANI WADIE</t>
+  </si>
+  <si>
+    <t>CR-CFC0079197/2024</t>
+  </si>
+  <si>
+    <t>TP-CFC0079196/2024</t>
+  </si>
+  <si>
+    <t>3 000,00</t>
+  </si>
+  <si>
+    <t>ACHOUR Imane</t>
+  </si>
+  <si>
+    <t>LIEMLAHI AMINA</t>
+  </si>
+  <si>
+    <t>BRD00016206</t>
+  </si>
+  <si>
+    <t>TP-CFC0078869/2023</t>
+  </si>
+  <si>
+    <t>Promotion 6</t>
+  </si>
+  <si>
+    <t>Semaine 1 de :02/01 à 08/01 2023</t>
+  </si>
+  <si>
+    <t>Chirurgie implantaire</t>
+  </si>
+  <si>
+    <t>CR-CFC0078868/2023</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>CR-CFC0078867/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0078866/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0078865/2023</t>
+  </si>
+  <si>
+    <t>5/01/2024</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>CR-CFC0078864/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0078863/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0078862/2023</t>
+  </si>
+  <si>
+    <t>BRD00016207</t>
+  </si>
+  <si>
+    <t>CR-CFC0080342/2024</t>
+  </si>
+  <si>
+    <t>DU Système de Management de la Qualité et des Compétences</t>
+  </si>
+  <si>
+    <t>Première année</t>
+  </si>
+  <si>
+    <t>29/01/2024</t>
+  </si>
+  <si>
+    <t>Semaine 4 de :22/01 à 28/01 2024</t>
+  </si>
+  <si>
+    <t>BENTALEB LAMIA</t>
+  </si>
+  <si>
+    <t>27/01/2024</t>
+  </si>
+  <si>
+    <t>L'accréditation: enjeux, normes et processus Mis en place du SMQ- Gestion du système de documentaire L'approche processus</t>
+  </si>
+  <si>
+    <t>CR-CFC0080341/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>2 625,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0080340/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0080339/2024</t>
+  </si>
+  <si>
+    <t>TRAPADOUX François ( Etranger) )</t>
+  </si>
+  <si>
+    <t>CR-CFC0080338/2024</t>
+  </si>
+  <si>
+    <t>BRD00016208</t>
+  </si>
+  <si>
+    <t>CR-CFC0078921/2023</t>
+  </si>
+  <si>
+    <t>Master Génie de la santé</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>HASSAINATE Mohammed</t>
+  </si>
+  <si>
+    <t>La comptabilité générale et les approches d'analyse des coûts</t>
+  </si>
+  <si>
+    <t>2 000,00</t>
+  </si>
+  <si>
+    <t>CR-CFC0078920/2023</t>
+  </si>
+  <si>
+    <t>MALEK Mohamed</t>
+  </si>
+  <si>
+    <t>3/01/2024</t>
+  </si>
+  <si>
+    <t>Management Hospitalier et les modes de management empruntes de mode des entreprises</t>
+  </si>
+  <si>
+    <t>CR-CFC0078755/2023</t>
+  </si>
+  <si>
+    <t>CR-CFC0078754/2023</t>
+  </si>
+  <si>
+    <t>HAMMOU Jaouad</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>Eléments d'epidémiologie et de biostatistique</t>
+  </si>
+  <si>
+    <t>CR-CFC0078753/2023</t>
+  </si>
+  <si>
+    <t>WAHABI RACHID</t>
+  </si>
+  <si>
+    <t>4/01/2024</t>
+  </si>
+  <si>
+    <t>Environnement et santé</t>
+  </si>
+  <si>
+    <t>CR-CFC0078752/2023</t>
+  </si>
+  <si>
+    <t>AZHAR Abdelilah</t>
+  </si>
+  <si>
+    <t>Droit de la santé</t>
+  </si>
+  <si>
+    <t>CR-CFC0078751/2023</t>
+  </si>
+  <si>
+    <t>2/01/2024</t>
+  </si>
+  <si>
+    <t>BRD00016209</t>
+  </si>
+  <si>
+    <t>CR-CFC0079615/2024</t>
+  </si>
+  <si>
+    <t>Semaine 2 de :08/01 à 14/01 2024</t>
+  </si>
+  <si>
+    <t>EL AOUFIR Khalid</t>
+  </si>
+  <si>
+    <t>9/01/2024</t>
+  </si>
+  <si>
+    <t>Introduction au management des organisations</t>
+  </si>
+  <si>
+    <t>CR-CFC0079518/2024</t>
+  </si>
+  <si>
+    <t>13/01/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079516/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079514/2024</t>
+  </si>
+  <si>
+    <t>10/01/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079513/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079512/2024</t>
+  </si>
+  <si>
+    <t>8/01/2024</t>
+  </si>
+  <si>
+    <t>BRD00016210</t>
+  </si>
+  <si>
+    <t>CR-CFC0079862/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079754/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079753/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079752/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079751/2024</t>
+  </si>
+  <si>
+    <t>18/01/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079750/2024</t>
+  </si>
+  <si>
+    <t>16/01/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079749/2024</t>
+  </si>
+  <si>
+    <t>15/01/2024</t>
+  </si>
+  <si>
+    <t>BRD00016211</t>
+  </si>
+  <si>
+    <t>CR-CFC0080328/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0080327/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0080281/2024</t>
+  </si>
+  <si>
+    <t>23/01/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0080280/2024</t>
+  </si>
+  <si>
+    <t>BRD00016212</t>
+  </si>
+  <si>
+    <t>CR-CFC0078757/2023</t>
+  </si>
+  <si>
+    <t>Deuxième année</t>
+  </si>
+  <si>
+    <t>AACHATI Smail (FC)</t>
+  </si>
+  <si>
+    <t>Le management des ressources financières de l'hôpital</t>
+  </si>
+  <si>
+    <t>CR-CFC0078756/2023</t>
+  </si>
+  <si>
+    <t>EL YADARI Mourad</t>
+  </si>
+  <si>
+    <t>Développement Humain et NTIC - 2</t>
+  </si>
+  <si>
+    <t>Transverse-Santé</t>
+  </si>
+  <si>
+    <t>BRD00016213</t>
+  </si>
+  <si>
+    <t>CR-CFC0079520/2024</t>
+  </si>
+  <si>
+    <t>KASOUATI Jalal</t>
+  </si>
+  <si>
+    <t>Santé Publique : Concept et Systèmes</t>
+  </si>
+  <si>
+    <t>CR-CFC0079519/2024</t>
+  </si>
+  <si>
+    <t>BRD00016214</t>
+  </si>
+  <si>
+    <t>CR-CFC0080017/2024</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>CR-CFC0079755/2024</t>
+  </si>
+  <si>
+    <t>BRD00016215</t>
+  </si>
+  <si>
+    <t>CR-CFC0078922/2024</t>
+  </si>
+  <si>
+    <t>MASTER IN BIOMEDICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>Management International Marketing</t>
+  </si>
+  <si>
+    <t>CR-CFC0078762/2023</t>
+  </si>
+  <si>
+    <t>Bajjou Tahar FC</t>
   </si>
   <si>
     <t>12:30</t>
   </si>
   <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>CR-CFC0043802/2023</t>
-  </si>
-  <si>
-    <t>SOUGHI MERYEM</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>CR-CFC0043799/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0043798/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0043796/2023</t>
-  </si>
-  <si>
-    <t>BELGNAOUI FATIMA ZAHRA</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>CR-CFC0043791/2023</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>CR-CFC0043790/2023</t>
-  </si>
-  <si>
-    <t>ECH-CHERIF EL KETTANI Mohamed Ali</t>
-  </si>
-  <si>
-    <t>1 500,00</t>
-  </si>
-  <si>
-    <t>BELLAHCEN MEHDI</t>
-  </si>
-  <si>
-    <t>CR-CFC0043787/2023</t>
-  </si>
-  <si>
-    <t>AIT OURHROUI Mohamed</t>
-  </si>
-  <si>
-    <t>CR-CFC0043786/2023</t>
-  </si>
-  <si>
-    <t>EL AYOUBI EL IDRISSI Ali</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>BRD00015124</t>
-  </si>
-  <si>
-    <t>CR-CFC0049428/2023</t>
-  </si>
-  <si>
-    <t>22/06/2023</t>
-  </si>
-  <si>
-    <t>Semaine 24 de :12/06 à 18/06 2023</t>
-  </si>
-  <si>
-    <t>GALLOUJ SALIM</t>
-  </si>
-  <si>
-    <t>17/06/2023</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>ongle</t>
-  </si>
-  <si>
-    <t>CR-CFC0049427/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049426/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049425/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049424/2023</t>
-  </si>
-  <si>
-    <t>CHIHEB SOUMIYA</t>
-  </si>
-  <si>
-    <t>16/06/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049423/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049422/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049421/2023</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>CR-CFC0049420/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049419/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049418/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049417/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049416/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0049414/2023</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>TP-CFC0049430/2023</t>
-  </si>
-  <si>
-    <t>Travaux pratiques</t>
-  </si>
-  <si>
-    <t>2 250,00</t>
-  </si>
-  <si>
-    <t>CHAJAI SALIM</t>
-  </si>
-  <si>
-    <t>BELARABI OTHMAN</t>
-  </si>
-  <si>
-    <t>ABEROUCH LARBI</t>
-  </si>
-  <si>
-    <t>CR-CFC0049415/2023</t>
-  </si>
-  <si>
-    <t>BRD00015125</t>
-  </si>
-  <si>
-    <t>CR-CFC0046279/2023</t>
-  </si>
-  <si>
-    <t>23/06/2023</t>
-  </si>
-  <si>
-    <t>Semaine 20 de :15/05 à 21/05 2023</t>
-  </si>
-  <si>
-    <t>FAKIR EL MEHDI</t>
-  </si>
-  <si>
-    <t>19/05/2023</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>- chirurgie cutanée partie 2 Fillers (partie 1</t>
-  </si>
-  <si>
-    <t>CR-CFC0046278/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0046276/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0046275/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0046274/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0046272/2023</t>
-  </si>
-  <si>
-    <t>BENZEKRI Leila</t>
-  </si>
-  <si>
-    <t>TP-CFC0046281/2023</t>
-  </si>
-  <si>
-    <t>20/05/2023</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>3 000,00</t>
-  </si>
-  <si>
-    <t>TP-CFC0046280/2023</t>
-  </si>
-  <si>
-    <t>BRD00015400</t>
-  </si>
-  <si>
-    <t>CR-CFC0050064/2023</t>
-  </si>
-  <si>
-    <t>27/07/2023</t>
-  </si>
-  <si>
-    <t>Semaine 28 de :10/07 à 16/07 2023</t>
-  </si>
-  <si>
-    <t>CHRAIBI RIM</t>
-  </si>
-  <si>
-    <t>15/07/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lasers, lumières et apparentés </t>
-  </si>
-  <si>
-    <t>CR-CFC0050063/2023</t>
-  </si>
-  <si>
-    <t>ZOUHAIR KAWTAR</t>
-  </si>
-  <si>
-    <t>1 875,00</t>
-  </si>
-  <si>
-    <t>CR-CFC0050061/2023</t>
-  </si>
-  <si>
-    <t>DIKHAYE SIHAM</t>
-  </si>
-  <si>
-    <t>1 125,00</t>
-  </si>
-  <si>
-    <t>CR-CFC0050060/2023</t>
-  </si>
-  <si>
-    <t>BENKHRABA FAOUZIA</t>
-  </si>
-  <si>
-    <t>CR-CFC0050059/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0050057/2023</t>
-  </si>
-  <si>
-    <t>BADAWI ACHRAF</t>
-  </si>
-  <si>
-    <t>14/07/2023</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>CR-CFC0050056/2023</t>
-  </si>
-  <si>
-    <t>BRD00015477</t>
-  </si>
-  <si>
-    <t>CR-CFC0052465/2023</t>
-  </si>
-  <si>
-    <t>09/10/2023</t>
-  </si>
-  <si>
-    <t>Semaine 37 de :12/09 à 18/09 2022</t>
-  </si>
-  <si>
-    <t>16/09/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toxine botulinique </t>
-  </si>
-  <si>
-    <t>CR-CFC0052464/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0052463/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0052462/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0052461/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0052459/2023</t>
-  </si>
-  <si>
-    <t>ALIX TOMAS (Etranger)</t>
-  </si>
-  <si>
-    <t>CR-CFC0052458/2023</t>
-  </si>
-  <si>
-    <t>15/09/2023</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>4 500,00</t>
-  </si>
-  <si>
-    <t>CR-CFC0052457/2023</t>
-  </si>
-  <si>
-    <t>MICHELLE PELLETIER (Etranger)</t>
-  </si>
-  <si>
-    <t>CR-CFC0052456/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0052449/2023</t>
-  </si>
-  <si>
-    <t>BRD00015592</t>
-  </si>
-  <si>
-    <t>CR-CFC0056577/2023</t>
-  </si>
-  <si>
-    <t>Semaine 40 de :03/10 à 09/10 2022</t>
-  </si>
-  <si>
-    <t>7/10/2023</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>technique de régénération tissulaire peeling, mésothérapie, PRP, microneedling</t>
-  </si>
-  <si>
-    <t>7 875,00</t>
-  </si>
-  <si>
-    <t>CR-CFC0056576/2023</t>
-  </si>
-  <si>
-    <t>MICHEL DAVID</t>
-  </si>
-  <si>
-    <t>AGNES EHLINGER</t>
-  </si>
-  <si>
-    <t>CR-CFC0056574/2023</t>
-  </si>
-  <si>
-    <t>6/10/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0056572/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0056571/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0056570/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0056569/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0056568/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0056567/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0056566/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0056565/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0056564/2023</t>
-  </si>
-  <si>
-    <t>BRD00015758</t>
-  </si>
-  <si>
-    <t>CR-CFC0070640/2023</t>
-  </si>
-  <si>
-    <t>29/11/2023</t>
-  </si>
-  <si>
-    <t>Semaine 45 de :07/11 à 13/11 2022</t>
-  </si>
-  <si>
-    <t>11/11/2023</t>
-  </si>
-  <si>
-    <t>Martine Baspeyras .</t>
-  </si>
-  <si>
-    <t>CR-CFC0070639/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0070638/2023</t>
-  </si>
-  <si>
-    <t>10/11/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0070637/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0070636/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0070635/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0070634/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0070633/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0070631/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0070630/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamada Syrine</t>
-  </si>
-  <si>
-    <t>BRD00015822</t>
-  </si>
-  <si>
-    <t>TP-CFC0076845/2023</t>
-  </si>
-  <si>
-    <t>27/12/2023</t>
-  </si>
-  <si>
-    <t>Semaine 50 de :12/12 à 18/12 2022</t>
-  </si>
-  <si>
-    <t>16/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> capillaire</t>
-  </si>
-  <si>
-    <t>CR-CFC0076844/2023</t>
-  </si>
-  <si>
-    <t>KELLATI AWATEF</t>
-  </si>
-  <si>
-    <t>15/12/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0076843/2023</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>CR-CFC0076842/2023</t>
-  </si>
-  <si>
-    <t>YAZIDI Yazid</t>
-  </si>
-  <si>
-    <t>CR-CFC0076841/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0076840/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0076839/2023</t>
-  </si>
-  <si>
-    <t>MEZIANE MARIAME (CFC)</t>
-  </si>
-  <si>
-    <t>CR-CFC0076838/2023</t>
-  </si>
-  <si>
-    <t>CR-CFC0076837/2023</t>
-  </si>
-  <si>
-    <t>SENOUCI  KARIMA</t>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>CR-CFC0078761/2023</t>
+  </si>
+  <si>
+    <t>FARAHAT ZINEB</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering 1</t>
+  </si>
+  <si>
+    <t>CR-CFC0078760/2023</t>
+  </si>
+  <si>
+    <t>ABATOUR SAADIA</t>
+  </si>
+  <si>
+    <t>Quality and regulatory</t>
+  </si>
+  <si>
+    <t>CR-CFC0078759/2023</t>
+  </si>
+  <si>
+    <t>Ngote Mounia FC</t>
+  </si>
+  <si>
+    <t>Advanced English</t>
+  </si>
+  <si>
+    <t>1 000,00</t>
+  </si>
+  <si>
+    <t>BRD00016216</t>
+  </si>
+  <si>
+    <t>CR-CFC0079527/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079524/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079523/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079522/2024</t>
+  </si>
+  <si>
+    <t>BRD00016217</t>
+  </si>
+  <si>
+    <t>CR-CFC0079904/2024</t>
+  </si>
+  <si>
+    <t>SEBIHI RAJAA</t>
+  </si>
+  <si>
+    <t>Radioprotection*</t>
+  </si>
+  <si>
+    <t>CR-CFC0079903/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079902/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079901/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0079900/2024</t>
+  </si>
+  <si>
+    <t>BRD00016218</t>
+  </si>
+  <si>
+    <t>CR-CFC0080368/2024</t>
+  </si>
+  <si>
+    <t>CR-CFC0080322/2024</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1115,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S103"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1160,7 +1214,7 @@
         <v>27</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>28</v>
@@ -1215,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
         <v>28</v>
@@ -1243,54 +1297,54 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
       <c r="R4"/>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1298,54 +1352,54 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
       </c>
       <c r="R5"/>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1353,54 +1407,54 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
         <v>32</v>
       </c>
       <c r="R6"/>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1408,54 +1462,54 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
       </c>
       <c r="R7"/>
       <c r="S7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1463,54 +1517,54 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>58</v>
-      </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
         <v>32</v>
       </c>
       <c r="R8"/>
       <c r="S8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1518,54 +1572,54 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>58</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
         <v>32</v>
       </c>
       <c r="R9"/>
       <c r="S9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1573,54 +1627,54 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q10" t="s">
         <v>32</v>
       </c>
       <c r="R10"/>
       <c r="S10" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1628,54 +1682,54 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q11" t="s">
         <v>32</v>
       </c>
       <c r="R11"/>
       <c r="S11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1683,54 +1737,54 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q12" t="s">
         <v>32</v>
       </c>
       <c r="R12"/>
       <c r="S12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1738,54 +1792,54 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N13"/>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q13" t="s">
         <v>32</v>
       </c>
       <c r="R13"/>
       <c r="S13" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1793,54 +1847,54 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" t="s">
         <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" t="s">
-        <v>70</v>
       </c>
       <c r="N14"/>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q14" t="s">
         <v>32</v>
       </c>
       <c r="R14"/>
       <c r="S14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1848,7 +1902,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>73</v>
@@ -1857,45 +1911,45 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="N15"/>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q15" t="s">
         <v>32</v>
       </c>
       <c r="R15"/>
       <c r="S15" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1903,54 +1957,54 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" t="s">
-        <v>65</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N16"/>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q16" t="s">
         <v>32</v>
       </c>
       <c r="R16"/>
       <c r="S16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1958,54 +2012,54 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="M17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N17"/>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q17" t="s">
         <v>32</v>
       </c>
       <c r="R17"/>
       <c r="S17" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2013,54 +2067,54 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="N18"/>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q18" t="s">
         <v>32</v>
       </c>
       <c r="R18"/>
       <c r="S18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2068,54 +2122,54 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M19" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N19"/>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q19" t="s">
         <v>32</v>
       </c>
       <c r="R19"/>
       <c r="S19" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2123,54 +2177,54 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="N20"/>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q20" t="s">
         <v>32</v>
       </c>
       <c r="R20"/>
       <c r="S20" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2178,54 +2232,54 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M21" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="N21"/>
       <c r="O21" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q21" t="s">
         <v>32</v>
       </c>
       <c r="R21"/>
       <c r="S21" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2233,54 +2287,54 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" t="s">
         <v>54</v>
-      </c>
-      <c r="M22" t="s">
-        <v>93</v>
       </c>
       <c r="N22"/>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q22" t="s">
         <v>32</v>
       </c>
       <c r="R22"/>
       <c r="S22" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2288,54 +2342,54 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M23" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="N23"/>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q23" t="s">
         <v>32</v>
       </c>
       <c r="R23"/>
       <c r="S23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2343,54 +2397,54 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M24" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="Q24" t="s">
         <v>32</v>
       </c>
       <c r="R24"/>
       <c r="S24" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2398,28 +2452,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" t="s">
-        <v>90</v>
-      </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J25" t="s">
         <v>100</v>
@@ -2428,24 +2482,24 @@
         <v>2</v>
       </c>
       <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
         <v>49</v>
-      </c>
-      <c r="M25" t="s">
-        <v>44</v>
       </c>
       <c r="N25"/>
       <c r="O25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="Q25" t="s">
         <v>32</v>
       </c>
       <c r="R25"/>
       <c r="S25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2453,25 +2507,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
         <v>99</v>
@@ -2480,27 +2534,27 @@
         <v>100</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N26"/>
       <c r="O26" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="Q26" t="s">
         <v>32</v>
       </c>
       <c r="R26"/>
       <c r="S26" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2508,54 +2562,54 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J27" t="s">
         <v>100</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M27" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="Q27" t="s">
         <v>32</v>
       </c>
       <c r="R27"/>
       <c r="S27" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2563,25 +2617,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I28" t="s">
         <v>99</v>
@@ -2590,27 +2644,27 @@
         <v>100</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="N28"/>
       <c r="O28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q28" t="s">
         <v>32</v>
       </c>
       <c r="R28"/>
       <c r="S28" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2618,25 +2672,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I29" t="s">
         <v>99</v>
@@ -2645,27 +2699,27 @@
         <v>100</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N29"/>
       <c r="O29" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q29" t="s">
         <v>32</v>
       </c>
       <c r="R29"/>
       <c r="S29" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2673,54 +2727,54 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I30" t="s">
         <v>99</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="Q30" t="s">
         <v>32</v>
       </c>
       <c r="R30"/>
       <c r="S30" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2728,7 +2782,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>107</v>
@@ -2737,45 +2791,45 @@
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N31"/>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="Q31" t="s">
         <v>32</v>
       </c>
       <c r="R31"/>
       <c r="S31" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2783,54 +2837,54 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I32" t="s">
         <v>99</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="M32" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N32"/>
       <c r="O32" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q32" t="s">
         <v>32</v>
       </c>
       <c r="R32"/>
       <c r="S32" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2838,54 +2892,54 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I33" t="s">
         <v>99</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="M33" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="N33"/>
       <c r="O33" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="Q33" t="s">
         <v>32</v>
       </c>
       <c r="R33"/>
       <c r="S33" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2893,54 +2947,54 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34" t="s">
         <v>38</v>
       </c>
-      <c r="G34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>111</v>
-      </c>
       <c r="M34" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="N34"/>
       <c r="O34" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="Q34" t="s">
         <v>32</v>
       </c>
       <c r="R34"/>
       <c r="S34" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -2948,54 +3002,54 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35" t="s">
         <v>38</v>
       </c>
-      <c r="G35" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35" t="s">
-        <v>92</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35" t="s">
-        <v>77</v>
-      </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N35"/>
       <c r="O35" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q35" t="s">
         <v>32</v>
       </c>
       <c r="R35"/>
       <c r="S35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3003,54 +3057,54 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36" t="s">
         <v>38</v>
       </c>
-      <c r="G36" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" t="s">
-        <v>115</v>
-      </c>
-      <c r="J36" t="s">
-        <v>92</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36" t="s">
-        <v>77</v>
-      </c>
       <c r="M36" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N36"/>
       <c r="O36" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="P36" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q36" t="s">
         <v>32</v>
       </c>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3058,54 +3112,54 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37" t="s">
         <v>38</v>
       </c>
-      <c r="G37" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37" t="s">
-        <v>77</v>
-      </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N37"/>
       <c r="O37" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="P37" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q37" t="s">
         <v>32</v>
       </c>
       <c r="R37"/>
       <c r="S37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3113,54 +3167,54 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" t="s">
         <v>38</v>
       </c>
-      <c r="G38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" t="s">
-        <v>92</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38" t="s">
-        <v>77</v>
-      </c>
       <c r="M38" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N38"/>
       <c r="O38" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q38" t="s">
         <v>32</v>
       </c>
       <c r="R38"/>
       <c r="S38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3168,54 +3222,54 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s">
         <v>118</v>
       </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" t="s">
-        <v>90</v>
-      </c>
       <c r="I39" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="M39" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="N39"/>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q39" t="s">
         <v>32</v>
       </c>
       <c r="R39"/>
       <c r="S39" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3223,54 +3277,54 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I40" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M40" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="N40"/>
       <c r="O40" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q40" t="s">
         <v>32</v>
       </c>
       <c r="R40"/>
       <c r="S40" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3278,54 +3332,54 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" t="s">
+        <v>108</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" t="s">
         <v>38</v>
       </c>
-      <c r="G41" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I41" t="s">
-        <v>74</v>
-      </c>
-      <c r="J41" t="s">
-        <v>124</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>49</v>
-      </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N41"/>
       <c r="O41" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q41" t="s">
         <v>32</v>
       </c>
       <c r="R41"/>
       <c r="S41" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3333,54 +3387,54 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>126</v>
+      </c>
+      <c r="M42" t="s">
         <v>121</v>
-      </c>
-      <c r="H42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42" t="s">
-        <v>91</v>
-      </c>
-      <c r="J42" t="s">
-        <v>124</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>51</v>
-      </c>
-      <c r="M42" t="s">
-        <v>75</v>
       </c>
       <c r="N42"/>
       <c r="O42" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P42" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q42" t="s">
         <v>32</v>
       </c>
       <c r="R42"/>
       <c r="S42" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3388,54 +3442,54 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G43" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I43" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="J43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M43" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="N43"/>
       <c r="O43" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q43" t="s">
         <v>32</v>
       </c>
       <c r="R43"/>
       <c r="S43" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3443,54 +3497,54 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I44" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="J44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="s">
+        <v>68</v>
+      </c>
+      <c r="M44" t="s">
         <v>54</v>
-      </c>
-      <c r="M44" t="s">
-        <v>93</v>
       </c>
       <c r="N44"/>
       <c r="O44" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q44" t="s">
         <v>32</v>
       </c>
       <c r="R44"/>
       <c r="S44" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3498,54 +3552,54 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
         <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="J45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K45">
         <v>2</v>
       </c>
       <c r="L45" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="M45" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="N45"/>
       <c r="O45" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q45" t="s">
         <v>32</v>
       </c>
       <c r="R45"/>
       <c r="S45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3553,54 +3607,54 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
         <v>133</v>
       </c>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" t="s">
-        <v>38</v>
-      </c>
       <c r="G46" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K46">
         <v>4</v>
       </c>
       <c r="L46" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M46" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="N46"/>
       <c r="O46" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P46" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="Q46" t="s">
         <v>32</v>
       </c>
       <c r="R46"/>
       <c r="S46" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3608,54 +3662,54 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" t="s">
         <v>133</v>
       </c>
-      <c r="D47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" t="s">
-        <v>38</v>
-      </c>
       <c r="G47" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" t="s">
+        <v>135</v>
+      </c>
+      <c r="I47" t="s">
+        <v>136</v>
+      </c>
+      <c r="J47" t="s">
+        <v>140</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" t="s">
         <v>121</v>
-      </c>
-      <c r="H47" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" t="s">
-        <v>91</v>
-      </c>
-      <c r="J47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K47">
-        <v>4</v>
-      </c>
-      <c r="L47" t="s">
-        <v>51</v>
-      </c>
-      <c r="M47" t="s">
-        <v>135</v>
       </c>
       <c r="N47"/>
       <c r="O47" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P47" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="Q47" t="s">
         <v>32</v>
       </c>
       <c r="R47"/>
       <c r="S47" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3663,54 +3717,54 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G48" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H48" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="J48" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K48">
         <v>4</v>
       </c>
       <c r="L48" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="M48" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P48" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="Q48" t="s">
         <v>32</v>
       </c>
       <c r="R48"/>
       <c r="S48" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3718,54 +3772,54 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H49" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I49" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="J49" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>4</v>
       </c>
       <c r="L49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M49" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="N49"/>
       <c r="O49" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P49" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="Q49" t="s">
         <v>32</v>
       </c>
       <c r="R49"/>
       <c r="S49" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3773,54 +3827,54 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" t="s">
+        <v>144</v>
+      </c>
+      <c r="J50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50" t="s">
         <v>38</v>
       </c>
-      <c r="G50" t="s">
-        <v>140</v>
-      </c>
-      <c r="H50" t="s">
-        <v>141</v>
-      </c>
-      <c r="I50" t="s">
-        <v>142</v>
-      </c>
-      <c r="J50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>75</v>
-      </c>
       <c r="M50" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="N50"/>
       <c r="O50" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="P50" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q50" t="s">
         <v>32</v>
       </c>
       <c r="R50"/>
       <c r="S50" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -3828,54 +3882,54 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
         <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" t="s">
+        <v>125</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51" t="s">
         <v>38</v>
       </c>
-      <c r="G51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H51" t="s">
-        <v>141</v>
-      </c>
-      <c r="I51" t="s">
-        <v>146</v>
-      </c>
-      <c r="J51" t="s">
-        <v>143</v>
-      </c>
-      <c r="K51">
-        <v>2</v>
-      </c>
-      <c r="L51" t="s">
-        <v>70</v>
-      </c>
       <c r="M51" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="N51"/>
       <c r="O51" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P51" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q51" t="s">
         <v>32</v>
       </c>
       <c r="R51"/>
       <c r="S51" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -3883,54 +3937,54 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
         <v>148</v>
       </c>
-      <c r="D52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" t="s">
-        <v>37</v>
-      </c>
       <c r="F52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H52" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" t="s">
+        <v>155</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52" t="s">
         <v>38</v>
       </c>
-      <c r="G52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H52" t="s">
-        <v>141</v>
-      </c>
-      <c r="I52" t="s">
-        <v>149</v>
-      </c>
-      <c r="J52" t="s">
-        <v>143</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>55</v>
-      </c>
       <c r="M52" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N52"/>
       <c r="O52" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q52" t="s">
         <v>32</v>
       </c>
       <c r="R52"/>
       <c r="S52" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -3938,54 +3992,54 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F53" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53" t="s">
+        <v>108</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53" t="s">
         <v>38</v>
       </c>
-      <c r="G53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" t="s">
-        <v>141</v>
-      </c>
-      <c r="I53" t="s">
-        <v>152</v>
-      </c>
-      <c r="J53" t="s">
-        <v>143</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>54</v>
-      </c>
-      <c r="M53" t="s">
-        <v>55</v>
       </c>
       <c r="N53"/>
       <c r="O53" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P53" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q53" t="s">
         <v>32</v>
       </c>
       <c r="R53"/>
       <c r="S53" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -3993,54 +4047,54 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
         <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G54" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H54" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="I54" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="J54" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L54" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="M54" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="N54"/>
       <c r="O54" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="P54" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q54" t="s">
         <v>32</v>
       </c>
       <c r="R54"/>
       <c r="S54" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4048,54 +4102,54 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D55" t="s">
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G55" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H55" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="I55" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J55" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K55">
         <v>4</v>
       </c>
       <c r="L55" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="M55" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="N55"/>
       <c r="O55" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="P55" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q55" t="s">
         <v>32</v>
       </c>
       <c r="R55"/>
       <c r="S55" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4103,54 +4157,54 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H56" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="I56" t="s">
+        <v>167</v>
+      </c>
+      <c r="J56" t="s">
         <v>155</v>
-      </c>
-      <c r="J56" t="s">
-        <v>156</v>
       </c>
       <c r="K56">
         <v>4</v>
       </c>
       <c r="L56" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="M56" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="N56"/>
       <c r="O56" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="P56" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q56" t="s">
         <v>32</v>
       </c>
       <c r="R56"/>
       <c r="S56" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4158,54 +4212,54 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" t="s">
+        <v>150</v>
+      </c>
+      <c r="J57" t="s">
+        <v>170</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57" t="s">
+        <v>126</v>
+      </c>
+      <c r="M57" t="s">
         <v>160</v>
-      </c>
-      <c r="D57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" t="s">
-        <v>162</v>
-      </c>
-      <c r="I57" t="s">
-        <v>142</v>
-      </c>
-      <c r="J57" t="s">
-        <v>163</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>70</v>
-      </c>
-      <c r="M57" t="s">
-        <v>29</v>
       </c>
       <c r="N57"/>
       <c r="O57" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="P57" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q57" t="s">
         <v>32</v>
       </c>
       <c r="R57"/>
       <c r="S57" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4213,54 +4267,54 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H58" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I58" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="J58" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L58" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M58" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="N58"/>
       <c r="O58" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="P58" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q58" t="s">
         <v>32</v>
       </c>
       <c r="R58"/>
       <c r="S58" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4268,54 +4322,54 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F59" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59" t="s">
+        <v>154</v>
+      </c>
+      <c r="J59" t="s">
+        <v>178</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59" t="s">
         <v>38</v>
       </c>
-      <c r="G59" t="s">
-        <v>161</v>
-      </c>
-      <c r="H59" t="s">
-        <v>162</v>
-      </c>
-      <c r="I59" t="s">
-        <v>142</v>
-      </c>
-      <c r="J59" t="s">
-        <v>163</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
-        <v>77</v>
-      </c>
       <c r="M59" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="N59"/>
       <c r="O59" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P59" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q59" t="s">
         <v>32</v>
       </c>
       <c r="R59"/>
       <c r="S59" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4323,54 +4377,54 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" t="s">
+        <v>133</v>
+      </c>
+      <c r="G60" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60" t="s">
         <v>159</v>
       </c>
-      <c r="C60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" t="s">
-        <v>161</v>
-      </c>
-      <c r="H60" t="s">
-        <v>162</v>
-      </c>
-      <c r="I60" t="s">
-        <v>74</v>
-      </c>
       <c r="J60" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L60" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="M60" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="N60"/>
       <c r="O60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P60" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q60" t="s">
         <v>32</v>
       </c>
       <c r="R60"/>
       <c r="S60" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4378,54 +4432,54 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F61" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" t="s">
+        <v>149</v>
+      </c>
+      <c r="H61" t="s">
+        <v>173</v>
+      </c>
+      <c r="I61" t="s">
+        <v>163</v>
+      </c>
+      <c r="J61" t="s">
+        <v>182</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61" t="s">
         <v>38</v>
       </c>
-      <c r="G61" t="s">
-        <v>161</v>
-      </c>
-      <c r="H61" t="s">
-        <v>162</v>
-      </c>
-      <c r="I61" t="s">
-        <v>74</v>
-      </c>
-      <c r="J61" t="s">
-        <v>163</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>93</v>
-      </c>
       <c r="M61" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="N61"/>
       <c r="O61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P61" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q61" t="s">
         <v>32</v>
       </c>
       <c r="R61"/>
       <c r="S61" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4433,54 +4487,54 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G62" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H62" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J62" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L62" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="M62" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="N62"/>
       <c r="O62" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P62" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q62" t="s">
         <v>32</v>
       </c>
       <c r="R62"/>
       <c r="S62" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4488,54 +4542,54 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H63" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I63" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="J63" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L63" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="M63" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="N63"/>
       <c r="O63" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="P63" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q63" t="s">
         <v>32</v>
       </c>
       <c r="R63"/>
       <c r="S63" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4543,54 +4597,54 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
         <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F64" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64" t="s">
+        <v>149</v>
+      </c>
+      <c r="H64" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" t="s">
+        <v>163</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64" t="s">
         <v>38</v>
       </c>
-      <c r="G64" t="s">
-        <v>161</v>
-      </c>
-      <c r="H64" t="s">
-        <v>162</v>
-      </c>
-      <c r="I64" t="s">
-        <v>142</v>
-      </c>
-      <c r="J64" t="s">
-        <v>172</v>
-      </c>
-      <c r="K64">
-        <v>6</v>
-      </c>
-      <c r="L64" t="s">
-        <v>75</v>
-      </c>
       <c r="M64" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="N64"/>
       <c r="O64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P64" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q64" t="s">
         <v>32</v>
       </c>
       <c r="R64"/>
       <c r="S64" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4598,54 +4652,54 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" t="s">
+        <v>149</v>
+      </c>
+      <c r="H65" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65" t="s">
+        <v>154</v>
+      </c>
+      <c r="J65" t="s">
+        <v>76</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="L65" t="s">
         <v>38</v>
       </c>
-      <c r="G65" t="s">
-        <v>161</v>
-      </c>
-      <c r="H65" t="s">
-        <v>162</v>
-      </c>
-      <c r="I65" t="s">
-        <v>176</v>
-      </c>
-      <c r="J65" t="s">
-        <v>172</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
-        <v>55</v>
-      </c>
       <c r="M65" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P65" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q65" t="s">
         <v>32</v>
       </c>
       <c r="R65"/>
       <c r="S65" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4653,54 +4707,54 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" t="s">
         <v>159</v>
       </c>
-      <c r="C66" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" t="s">
-        <v>161</v>
-      </c>
-      <c r="H66" t="s">
-        <v>162</v>
-      </c>
-      <c r="I66" t="s">
-        <v>74</v>
-      </c>
       <c r="J66" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L66" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="M66" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P66" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q66" t="s">
         <v>32</v>
       </c>
       <c r="R66"/>
       <c r="S66" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -4708,54 +4762,54 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G67" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H67" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="I67" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="J67" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L67" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="M67" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P67" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q67" t="s">
         <v>32</v>
       </c>
       <c r="R67"/>
       <c r="S67" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -4763,54 +4817,54 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
         <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H68" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="I68" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="J68" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K68">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L68" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="M68" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="N68"/>
       <c r="O68" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="P68" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q68" t="s">
         <v>32</v>
       </c>
       <c r="R68"/>
       <c r="S68" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -4818,54 +4872,54 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
         <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H69" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="I69" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="J69" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K69">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L69" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="M69" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="N69"/>
       <c r="O69" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P69" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q69" t="s">
         <v>32</v>
       </c>
       <c r="R69"/>
       <c r="S69" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -4873,54 +4927,54 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G70" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H70" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="I70" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="J70" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="K70">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L70" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="M70" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="N70"/>
       <c r="O70" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P70" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q70" t="s">
         <v>32</v>
       </c>
       <c r="R70"/>
       <c r="S70" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -4928,54 +4982,54 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G71" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H71" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="I71" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="J71" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L71" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="M71" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="N71"/>
       <c r="O71" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="P71" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q71" t="s">
         <v>32</v>
       </c>
       <c r="R71"/>
       <c r="S71" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -4983,54 +5037,54 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H72" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="I72" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="J72" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L72" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="M72" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="N72"/>
       <c r="O72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="P72" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q72" t="s">
         <v>32</v>
       </c>
       <c r="R72"/>
       <c r="S72" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5038,54 +5092,54 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D73" t="s">
         <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G73" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H73" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="I73" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="J73" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L73" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="M73" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="N73"/>
       <c r="O73" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P73" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q73" t="s">
         <v>32</v>
       </c>
       <c r="R73"/>
       <c r="S73" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5093,54 +5147,54 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G74" t="s">
+        <v>149</v>
+      </c>
+      <c r="H74" t="s">
+        <v>135</v>
+      </c>
+      <c r="I74" t="s">
+        <v>174</v>
+      </c>
+      <c r="J74" t="s">
         <v>24</v>
       </c>
-      <c r="H74" t="s">
-        <v>181</v>
-      </c>
-      <c r="I74" t="s">
-        <v>188</v>
-      </c>
-      <c r="J74" t="s">
-        <v>190</v>
-      </c>
       <c r="K74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L74" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M74" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="N74"/>
       <c r="O74" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P74" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q74" t="s">
         <v>32</v>
       </c>
       <c r="R74"/>
       <c r="S74" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -5148,54 +5202,54 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="G75" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H75" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="I75" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="J75" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L75" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="M75" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="P75" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q75" t="s">
         <v>32</v>
       </c>
       <c r="R75"/>
       <c r="S75" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5203,54 +5257,54 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
         <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="G76" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H76" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="I76" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="J76" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L76" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="M76" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="P76" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q76" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="R76"/>
       <c r="S76" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5258,54 +5312,54 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D77" t="s">
         <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H77" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I77" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="J77" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L77" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="M77" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="N77"/>
       <c r="O77" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="P77" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q77" t="s">
         <v>32</v>
       </c>
       <c r="R77"/>
       <c r="S77" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -5313,54 +5367,54 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H78" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I78" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J78" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L78" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="M78" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="N78"/>
       <c r="O78" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="P78" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q78" t="s">
         <v>32</v>
       </c>
       <c r="R78"/>
       <c r="S78" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5368,54 +5422,54 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="D79" t="s">
         <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="G79" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H79" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="I79" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="J79" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L79" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="M79" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="N79"/>
       <c r="O79" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="P79" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q79" t="s">
         <v>32</v>
       </c>
       <c r="R79"/>
       <c r="S79" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5423,54 +5477,54 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="D80" t="s">
         <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="H80" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="I80" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="J80" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L80" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="M80" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="N80"/>
       <c r="O80" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="P80" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q80" t="s">
         <v>32</v>
       </c>
       <c r="R80"/>
       <c r="S80" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5478,54 +5532,54 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F81" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" t="s">
+        <v>149</v>
+      </c>
+      <c r="H81" t="s">
+        <v>98</v>
+      </c>
+      <c r="I81" t="s">
+        <v>174</v>
+      </c>
+      <c r="J81" t="s">
+        <v>155</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81" t="s">
         <v>38</v>
       </c>
-      <c r="G81" t="s">
-        <v>202</v>
-      </c>
-      <c r="H81" t="s">
-        <v>203</v>
-      </c>
-      <c r="I81" t="s">
-        <v>74</v>
-      </c>
-      <c r="J81" t="s">
-        <v>204</v>
-      </c>
-      <c r="K81">
-        <v>4</v>
-      </c>
-      <c r="L81" t="s">
-        <v>77</v>
-      </c>
       <c r="M81" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="N81"/>
       <c r="O81" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="P81" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q81" t="s">
         <v>32</v>
       </c>
       <c r="R81"/>
       <c r="S81" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -5533,54 +5587,54 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G82" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H82" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="I82" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="J82" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="K82">
         <v>4</v>
       </c>
       <c r="L82" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="M82" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="N82"/>
       <c r="O82" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="P82" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q82" t="s">
         <v>32</v>
       </c>
       <c r="R82"/>
       <c r="S82" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -5588,54 +5642,54 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
         <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G83" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H83" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="I83" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J83" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="K83">
         <v>4</v>
       </c>
       <c r="L83" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="M83" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N83"/>
       <c r="O83" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="P83" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q83" t="s">
         <v>32</v>
       </c>
       <c r="R83"/>
       <c r="S83" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -5643,54 +5697,54 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G84" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H84" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="I84" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="J84" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="K84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L84" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="M84" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="P84" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q84" t="s">
         <v>32</v>
       </c>
       <c r="R84"/>
       <c r="S84" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -5698,54 +5752,54 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C85" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G85" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H85" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="I85" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="J85" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="K85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L85" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="M85" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="P85" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q85" t="s">
         <v>32</v>
       </c>
       <c r="R85"/>
       <c r="S85" t="s">
-        <v>136</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -5753,54 +5807,54 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="C86" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G86" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H86" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="I86" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J86" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="K86">
         <v>4</v>
       </c>
       <c r="L86" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="M86" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="N86"/>
       <c r="O86" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="P86" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q86" t="s">
         <v>32</v>
       </c>
       <c r="R86"/>
       <c r="S86" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -5808,54 +5862,54 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F87" t="s">
+        <v>133</v>
+      </c>
+      <c r="G87" t="s">
+        <v>149</v>
+      </c>
+      <c r="H87" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87" t="s">
+        <v>174</v>
+      </c>
+      <c r="J87" t="s">
+        <v>182</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87" t="s">
         <v>38</v>
       </c>
-      <c r="G87" t="s">
-        <v>202</v>
-      </c>
-      <c r="H87" t="s">
-        <v>203</v>
-      </c>
-      <c r="I87" t="s">
-        <v>205</v>
-      </c>
-      <c r="J87" t="s">
-        <v>208</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87" t="s">
-        <v>125</v>
-      </c>
       <c r="M87" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="N87"/>
       <c r="O87" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="P87" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q87" t="s">
         <v>32</v>
       </c>
       <c r="R87"/>
       <c r="S87" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -5863,54 +5917,54 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G88" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H88" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="I88" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="J88" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="M88" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N88"/>
       <c r="O88" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="P88" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q88" t="s">
         <v>32</v>
       </c>
       <c r="R88"/>
       <c r="S88" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -5918,54 +5972,54 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G89" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H89" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="I89" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="J89" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L89" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N89"/>
       <c r="O89" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="P89" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q89" t="s">
         <v>32</v>
       </c>
       <c r="R89"/>
       <c r="S89" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -5973,54 +6027,54 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G90" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H90" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="I90" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="J90" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L90" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M90" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N90"/>
       <c r="O90" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="P90" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q90" t="s">
         <v>32</v>
       </c>
       <c r="R90"/>
       <c r="S90" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6028,54 +6082,54 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G91" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H91" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="I91" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="J91" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L91" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M91" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="N91"/>
       <c r="O91" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="P91" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q91" t="s">
         <v>32</v>
       </c>
       <c r="R91"/>
       <c r="S91" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6083,54 +6137,54 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="D92" t="s">
         <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F92" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" t="s">
+        <v>149</v>
+      </c>
+      <c r="H92" t="s">
+        <v>59</v>
+      </c>
+      <c r="I92" t="s">
+        <v>174</v>
+      </c>
+      <c r="J92" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92" t="s">
         <v>38</v>
       </c>
-      <c r="G92" t="s">
-        <v>202</v>
-      </c>
-      <c r="H92" t="s">
-        <v>203</v>
-      </c>
-      <c r="I92" t="s">
-        <v>205</v>
-      </c>
-      <c r="J92" t="s">
-        <v>208</v>
-      </c>
-      <c r="K92">
-        <v>2</v>
-      </c>
-      <c r="L92" t="s">
-        <v>93</v>
-      </c>
       <c r="M92" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N92"/>
       <c r="O92" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="P92" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q92" t="s">
         <v>32</v>
       </c>
       <c r="R92"/>
       <c r="S92" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6138,54 +6192,54 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="D93" t="s">
         <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G93" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H93" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="I93" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="J93" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="M93" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="N93"/>
       <c r="O93" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="P93" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q93" t="s">
         <v>32</v>
       </c>
       <c r="R93"/>
       <c r="S93" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6193,54 +6247,54 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G94" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="H94" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="I94" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="J94" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L94" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="M94" t="s">
         <v>28</v>
       </c>
       <c r="N94"/>
       <c r="O94" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="P94" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q94" t="s">
         <v>32</v>
       </c>
       <c r="R94"/>
       <c r="S94" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6248,54 +6302,54 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="F95" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" t="s">
+        <v>149</v>
+      </c>
+      <c r="H95" t="s">
+        <v>135</v>
+      </c>
+      <c r="I95" t="s">
+        <v>246</v>
+      </c>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95" t="s">
         <v>38</v>
       </c>
-      <c r="G95" t="s">
-        <v>219</v>
-      </c>
-      <c r="H95" t="s">
-        <v>220</v>
-      </c>
-      <c r="I95" t="s">
-        <v>74</v>
-      </c>
-      <c r="J95" t="s">
-        <v>221</v>
-      </c>
-      <c r="K95">
-        <v>10</v>
-      </c>
-      <c r="L95" t="s">
-        <v>86</v>
-      </c>
       <c r="M95" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="N95"/>
       <c r="O95" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="P95" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="Q95" t="s">
         <v>32</v>
       </c>
       <c r="R95"/>
       <c r="S95" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6303,439 +6357,54 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="C96" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
         <v>223</v>
       </c>
-      <c r="D96" t="s">
-        <v>21</v>
-      </c>
-      <c r="E96" t="s">
-        <v>37</v>
-      </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="G96" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="H96" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="I96" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J96" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L96" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M96" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="N96"/>
       <c r="O96" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P96" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q96" t="s">
         <v>32</v>
       </c>
       <c r="R96"/>
       <c r="S96" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" t="s">
-        <v>226</v>
-      </c>
-      <c r="D97" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" t="s">
-        <v>38</v>
-      </c>
-      <c r="G97" t="s">
-        <v>219</v>
-      </c>
-      <c r="H97" t="s">
-        <v>220</v>
-      </c>
-      <c r="I97" t="s">
-        <v>224</v>
-      </c>
-      <c r="J97" t="s">
-        <v>225</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97" t="s">
-        <v>125</v>
-      </c>
-      <c r="M97" t="s">
-        <v>227</v>
-      </c>
-      <c r="N97"/>
-      <c r="O97" t="s">
-        <v>222</v>
-      </c>
-      <c r="P97" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>32</v>
-      </c>
-      <c r="R97"/>
-      <c r="S97" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>217</v>
-      </c>
-      <c r="C98" t="s">
-        <v>228</v>
-      </c>
-      <c r="D98" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" t="s">
-        <v>38</v>
-      </c>
-      <c r="G98" t="s">
-        <v>219</v>
-      </c>
-      <c r="H98" t="s">
-        <v>220</v>
-      </c>
-      <c r="I98" t="s">
-        <v>229</v>
-      </c>
-      <c r="J98" t="s">
-        <v>225</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" t="s">
-        <v>51</v>
-      </c>
-      <c r="M98" t="s">
-        <v>49</v>
-      </c>
-      <c r="N98"/>
-      <c r="O98" t="s">
-        <v>222</v>
-      </c>
-      <c r="P98" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>32</v>
-      </c>
-      <c r="R98"/>
-      <c r="S98" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>217</v>
-      </c>
-      <c r="C99" t="s">
-        <v>230</v>
-      </c>
-      <c r="D99" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99" t="s">
-        <v>37</v>
-      </c>
-      <c r="F99" t="s">
-        <v>38</v>
-      </c>
-      <c r="G99" t="s">
-        <v>219</v>
-      </c>
-      <c r="H99" t="s">
-        <v>220</v>
-      </c>
-      <c r="I99" t="s">
-        <v>142</v>
-      </c>
-      <c r="J99" t="s">
-        <v>225</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99" t="s">
-        <v>29</v>
-      </c>
-      <c r="M99" t="s">
-        <v>44</v>
-      </c>
-      <c r="N99"/>
-      <c r="O99" t="s">
-        <v>222</v>
-      </c>
-      <c r="P99" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>32</v>
-      </c>
-      <c r="R99"/>
-      <c r="S99" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>217</v>
-      </c>
-      <c r="C100" t="s">
-        <v>231</v>
-      </c>
-      <c r="D100" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" t="s">
-        <v>37</v>
-      </c>
-      <c r="F100" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" t="s">
-        <v>219</v>
-      </c>
-      <c r="H100" t="s">
-        <v>220</v>
-      </c>
-      <c r="I100" t="s">
-        <v>142</v>
-      </c>
-      <c r="J100" t="s">
-        <v>225</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100" t="s">
-        <v>70</v>
-      </c>
-      <c r="M100" t="s">
-        <v>29</v>
-      </c>
-      <c r="N100"/>
-      <c r="O100" t="s">
-        <v>222</v>
-      </c>
-      <c r="P100" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>32</v>
-      </c>
-      <c r="R100"/>
-      <c r="S100" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>217</v>
-      </c>
-      <c r="C101" t="s">
-        <v>232</v>
-      </c>
-      <c r="D101" t="s">
-        <v>21</v>
-      </c>
-      <c r="E101" t="s">
-        <v>37</v>
-      </c>
-      <c r="F101" t="s">
-        <v>38</v>
-      </c>
-      <c r="G101" t="s">
-        <v>219</v>
-      </c>
-      <c r="H101" t="s">
-        <v>220</v>
-      </c>
-      <c r="I101" t="s">
-        <v>233</v>
-      </c>
-      <c r="J101" t="s">
-        <v>225</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101" t="s">
-        <v>54</v>
-      </c>
-      <c r="M101" t="s">
-        <v>66</v>
-      </c>
-      <c r="N101"/>
-      <c r="O101" t="s">
-        <v>222</v>
-      </c>
-      <c r="P101" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>32</v>
-      </c>
-      <c r="R101"/>
-      <c r="S101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>217</v>
-      </c>
-      <c r="C102" t="s">
-        <v>234</v>
-      </c>
-      <c r="D102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" t="s">
-        <v>37</v>
-      </c>
-      <c r="F102" t="s">
-        <v>38</v>
-      </c>
-      <c r="G102" t="s">
-        <v>219</v>
-      </c>
-      <c r="H102" t="s">
-        <v>220</v>
-      </c>
-      <c r="I102" t="s">
-        <v>233</v>
-      </c>
-      <c r="J102" t="s">
-        <v>225</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102" t="s">
-        <v>63</v>
-      </c>
-      <c r="M102" t="s">
-        <v>54</v>
-      </c>
-      <c r="N102"/>
-      <c r="O102" t="s">
-        <v>222</v>
-      </c>
-      <c r="P102" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>32</v>
-      </c>
-      <c r="R102"/>
-      <c r="S102" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>217</v>
-      </c>
-      <c r="C103" t="s">
-        <v>235</v>
-      </c>
-      <c r="D103" t="s">
-        <v>21</v>
-      </c>
-      <c r="E103" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" t="s">
-        <v>38</v>
-      </c>
-      <c r="G103" t="s">
-        <v>219</v>
-      </c>
-      <c r="H103" t="s">
-        <v>220</v>
-      </c>
-      <c r="I103" t="s">
-        <v>236</v>
-      </c>
-      <c r="J103" t="s">
-        <v>225</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103" t="s">
-        <v>86</v>
-      </c>
-      <c r="M103" t="s">
-        <v>63</v>
-      </c>
-      <c r="N103"/>
-      <c r="O103" t="s">
-        <v>222</v>
-      </c>
-      <c r="P103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>32</v>
-      </c>
-      <c r="R103"/>
-      <c r="S103" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
